--- a/Requirements/Lhub_SIQ.xlsx
+++ b/Requirements/Lhub_SIQ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mazmy\Documents\GitHub\Learning-hub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI subjects\software project management\project 3\Learning-hub\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>SIQ_15</t>
   </si>
   <si>
-    <t>Would the article be reviewed before before being published ?</t>
-  </si>
-  <si>
     <t>Yes, the admin has to review it and he has the right to confirm or reject the article</t>
   </si>
   <si>
@@ -457,13 +454,16 @@
   </si>
   <si>
     <t>SIQ_14</t>
+  </si>
+  <si>
+    <t>Would the article be reviewed before being published ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +485,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -880,23 +881,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A43"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="1"/>
-    <col min="2" max="2" width="69.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="92.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="102.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="1"/>
+    <col min="1" max="1" width="14.44140625" style="1"/>
+    <col min="2" max="2" width="69.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="92.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="102.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" customHeight="1">
+    <row r="1" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -920,10 +921,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -950,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -977,7 +978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -988,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4" t="s">
@@ -1004,7 +1005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
@@ -1274,18 +1275,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="4" t="s">
@@ -1301,18 +1302,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
@@ -1328,12 +1329,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>9</v>
@@ -1355,12 +1356,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>9</v>
@@ -1382,18 +1383,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="4" t="s">
@@ -1409,18 +1410,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="4" t="s">
@@ -1436,18 +1437,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="4" t="s">
@@ -1463,18 +1464,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="4" t="s">
@@ -1490,18 +1491,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="4" t="s">
@@ -1517,18 +1518,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="4" t="s">
@@ -1544,18 +1545,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="4" t="s">
@@ -1571,18 +1572,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="4" t="s">
@@ -1598,18 +1599,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="4" t="s">
@@ -1625,22 +1626,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>12</v>
@@ -1652,22 +1653,22 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -1679,18 +1680,18 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28.5" customHeight="1">
+    <row r="30" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="4" t="s">
@@ -1706,18 +1707,18 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="4" t="s">
@@ -1733,18 +1734,18 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="4" t="s">
@@ -1760,18 +1761,18 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="4" t="s">
@@ -1787,18 +1788,18 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="4" t="s">
@@ -1814,18 +1815,18 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="26">
+    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="4" t="s">
@@ -1841,18 +1842,18 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>11</v>
@@ -1867,21 +1868,21 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>11</v>
@@ -1896,18 +1897,18 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="26">
+    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>11</v>
@@ -1922,21 +1923,21 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>11</v>
@@ -1951,21 +1952,21 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="26">
+    <row r="40" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>11</v>
@@ -1980,21 +1981,21 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="26">
+    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>11</v>
@@ -2009,18 +2010,18 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="4" t="s">
@@ -2036,21 +2037,21 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>11</v>
@@ -2065,5737 +2066,5737 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="C44" s="2"/>
       <c r="F44" s="2"/>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="C45" s="2"/>
       <c r="F45" s="2"/>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="C46" s="2"/>
       <c r="F46" s="2"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="C47" s="2"/>
       <c r="F47" s="2"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="C48" s="2"/>
       <c r="F48" s="2"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="C49" s="2"/>
       <c r="F49" s="2"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="C50" s="2"/>
       <c r="F50" s="2"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="C51" s="2"/>
       <c r="F51" s="2"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="C52" s="2"/>
       <c r="F52" s="2"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="C53" s="2"/>
       <c r="F53" s="2"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="C54" s="2"/>
       <c r="F54" s="2"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="C55" s="2"/>
       <c r="F55" s="2"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="C56" s="2"/>
       <c r="F56" s="2"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="C57" s="2"/>
       <c r="F57" s="2"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="C58" s="2"/>
       <c r="F58" s="2"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="C59" s="2"/>
       <c r="F59" s="2"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="C60" s="2"/>
       <c r="F60" s="2"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="C61" s="2"/>
       <c r="F61" s="2"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="C62" s="2"/>
       <c r="F62" s="2"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="C63" s="2"/>
       <c r="F63" s="2"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="C64" s="2"/>
       <c r="F64" s="2"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="C65" s="2"/>
       <c r="F65" s="2"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="C66" s="2"/>
       <c r="F66" s="2"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="C67" s="2"/>
       <c r="F67" s="2"/>
       <c r="I67" s="15"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="C68" s="2"/>
       <c r="F68" s="2"/>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="C69" s="2"/>
       <c r="F69" s="2"/>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="C70" s="2"/>
       <c r="F70" s="2"/>
       <c r="I70" s="15"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="C71" s="2"/>
       <c r="F71" s="2"/>
       <c r="I71" s="15"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="C72" s="2"/>
       <c r="F72" s="2"/>
       <c r="I72" s="15"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="C73" s="2"/>
       <c r="F73" s="2"/>
       <c r="I73" s="15"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="C74" s="2"/>
       <c r="F74" s="2"/>
       <c r="I74" s="15"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="C75" s="2"/>
       <c r="F75" s="2"/>
       <c r="I75" s="15"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="C76" s="2"/>
       <c r="F76" s="2"/>
       <c r="I76" s="15"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="C77" s="2"/>
       <c r="F77" s="2"/>
       <c r="I77" s="15"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="C78" s="2"/>
       <c r="F78" s="2"/>
       <c r="I78" s="15"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="C79" s="2"/>
       <c r="F79" s="2"/>
       <c r="I79" s="15"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="C80" s="2"/>
       <c r="F80" s="2"/>
       <c r="I80" s="15"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="C81" s="2"/>
       <c r="F81" s="2"/>
       <c r="I81" s="15"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="C82" s="2"/>
       <c r="F82" s="2"/>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="C83" s="2"/>
       <c r="F83" s="2"/>
       <c r="I83" s="15"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="C84" s="2"/>
       <c r="F84" s="2"/>
       <c r="I84" s="15"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="C85" s="2"/>
       <c r="F85" s="2"/>
       <c r="I85" s="15"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="C86" s="2"/>
       <c r="F86" s="2"/>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="C87" s="2"/>
       <c r="F87" s="2"/>
       <c r="I87" s="15"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="C88" s="2"/>
       <c r="F88" s="2"/>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="C89" s="2"/>
       <c r="F89" s="2"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="C90" s="2"/>
       <c r="F90" s="2"/>
       <c r="I90" s="15"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="C91" s="2"/>
       <c r="F91" s="2"/>
       <c r="I91" s="15"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="C92" s="2"/>
       <c r="F92" s="2"/>
       <c r="I92" s="15"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="C93" s="2"/>
       <c r="F93" s="2"/>
       <c r="I93" s="15"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="C94" s="2"/>
       <c r="F94" s="2"/>
       <c r="I94" s="15"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="C95" s="2"/>
       <c r="F95" s="2"/>
       <c r="I95" s="15"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="C96" s="2"/>
       <c r="F96" s="2"/>
       <c r="I96" s="15"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="C97" s="2"/>
       <c r="F97" s="2"/>
       <c r="I97" s="15"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="C98" s="2"/>
       <c r="F98" s="2"/>
       <c r="I98" s="15"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="C99" s="2"/>
       <c r="F99" s="2"/>
       <c r="I99" s="15"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="C100" s="2"/>
       <c r="F100" s="2"/>
       <c r="I100" s="15"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="C101" s="2"/>
       <c r="F101" s="2"/>
       <c r="I101" s="15"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="C102" s="2"/>
       <c r="F102" s="2"/>
       <c r="I102" s="15"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="C103" s="2"/>
       <c r="F103" s="2"/>
       <c r="I103" s="15"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="C104" s="2"/>
       <c r="F104" s="2"/>
       <c r="I104" s="15"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="C105" s="2"/>
       <c r="F105" s="2"/>
       <c r="I105" s="15"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="C106" s="2"/>
       <c r="F106" s="2"/>
       <c r="I106" s="15"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="C107" s="2"/>
       <c r="F107" s="2"/>
       <c r="I107" s="15"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="C108" s="2"/>
       <c r="F108" s="2"/>
       <c r="I108" s="15"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="C109" s="2"/>
       <c r="F109" s="2"/>
       <c r="I109" s="15"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="C110" s="2"/>
       <c r="F110" s="2"/>
       <c r="I110" s="15"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="C111" s="2"/>
       <c r="F111" s="2"/>
       <c r="I111" s="15"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="C112" s="2"/>
       <c r="F112" s="2"/>
       <c r="I112" s="15"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="C113" s="2"/>
       <c r="F113" s="2"/>
       <c r="I113" s="15"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="C114" s="2"/>
       <c r="F114" s="2"/>
       <c r="I114" s="15"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="C115" s="2"/>
       <c r="F115" s="2"/>
       <c r="I115" s="15"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="C116" s="2"/>
       <c r="F116" s="2"/>
       <c r="I116" s="15"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="C117" s="2"/>
       <c r="F117" s="2"/>
       <c r="I117" s="15"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="C118" s="2"/>
       <c r="F118" s="2"/>
       <c r="I118" s="15"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="C119" s="2"/>
       <c r="F119" s="2"/>
       <c r="I119" s="15"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="C120" s="2"/>
       <c r="F120" s="2"/>
       <c r="I120" s="15"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="C121" s="2"/>
       <c r="F121" s="2"/>
       <c r="I121" s="15"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="C122" s="2"/>
       <c r="F122" s="2"/>
       <c r="I122" s="15"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="C123" s="2"/>
       <c r="F123" s="2"/>
       <c r="I123" s="15"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="C124" s="2"/>
       <c r="F124" s="2"/>
       <c r="I124" s="15"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="C125" s="2"/>
       <c r="F125" s="2"/>
       <c r="I125" s="15"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="C126" s="2"/>
       <c r="F126" s="2"/>
       <c r="I126" s="15"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="C127" s="2"/>
       <c r="F127" s="2"/>
       <c r="I127" s="15"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="C128" s="2"/>
       <c r="F128" s="2"/>
       <c r="I128" s="15"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="C129" s="2"/>
       <c r="F129" s="2"/>
       <c r="I129" s="15"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="C130" s="2"/>
       <c r="F130" s="2"/>
       <c r="I130" s="15"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="C131" s="2"/>
       <c r="F131" s="2"/>
       <c r="I131" s="15"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="C132" s="2"/>
       <c r="F132" s="2"/>
       <c r="I132" s="15"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="C133" s="2"/>
       <c r="F133" s="2"/>
       <c r="I133" s="15"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="C134" s="2"/>
       <c r="F134" s="2"/>
       <c r="I134" s="15"/>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="C135" s="2"/>
       <c r="F135" s="2"/>
       <c r="I135" s="15"/>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="C136" s="2"/>
       <c r="F136" s="2"/>
       <c r="I136" s="15"/>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="C137" s="2"/>
       <c r="F137" s="2"/>
       <c r="I137" s="15"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="C138" s="2"/>
       <c r="F138" s="2"/>
       <c r="I138" s="15"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="C139" s="2"/>
       <c r="F139" s="2"/>
       <c r="I139" s="15"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="C140" s="2"/>
       <c r="F140" s="2"/>
       <c r="I140" s="15"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="C141" s="2"/>
       <c r="F141" s="2"/>
       <c r="I141" s="15"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="C142" s="2"/>
       <c r="F142" s="2"/>
       <c r="I142" s="15"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="C143" s="2"/>
       <c r="F143" s="2"/>
       <c r="I143" s="15"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="C144" s="2"/>
       <c r="F144" s="2"/>
       <c r="I144" s="15"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="C145" s="2"/>
       <c r="F145" s="2"/>
       <c r="I145" s="15"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="C146" s="2"/>
       <c r="F146" s="2"/>
       <c r="I146" s="15"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="C147" s="2"/>
       <c r="F147" s="2"/>
       <c r="I147" s="15"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="C148" s="2"/>
       <c r="F148" s="2"/>
       <c r="I148" s="15"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="C149" s="2"/>
       <c r="F149" s="2"/>
       <c r="I149" s="15"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="C150" s="2"/>
       <c r="F150" s="2"/>
       <c r="I150" s="15"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="C151" s="2"/>
       <c r="F151" s="2"/>
       <c r="I151" s="15"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="C152" s="2"/>
       <c r="F152" s="2"/>
       <c r="I152" s="15"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="C153" s="2"/>
       <c r="F153" s="2"/>
       <c r="I153" s="15"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="C154" s="2"/>
       <c r="F154" s="2"/>
       <c r="I154" s="15"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="C155" s="2"/>
       <c r="F155" s="2"/>
       <c r="I155" s="15"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="C156" s="2"/>
       <c r="F156" s="2"/>
       <c r="I156" s="15"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="C157" s="2"/>
       <c r="F157" s="2"/>
       <c r="I157" s="15"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="C158" s="2"/>
       <c r="F158" s="2"/>
       <c r="I158" s="15"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="C159" s="2"/>
       <c r="F159" s="2"/>
       <c r="I159" s="15"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="C160" s="2"/>
       <c r="F160" s="2"/>
       <c r="I160" s="15"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="C161" s="2"/>
       <c r="F161" s="2"/>
       <c r="I161" s="15"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="C162" s="2"/>
       <c r="F162" s="2"/>
       <c r="I162" s="15"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="C163" s="2"/>
       <c r="F163" s="2"/>
       <c r="I163" s="15"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="C164" s="2"/>
       <c r="F164" s="2"/>
       <c r="I164" s="15"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="C165" s="2"/>
       <c r="F165" s="2"/>
       <c r="I165" s="15"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="C166" s="2"/>
       <c r="F166" s="2"/>
       <c r="I166" s="15"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="C167" s="2"/>
       <c r="F167" s="2"/>
       <c r="I167" s="15"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="C168" s="2"/>
       <c r="F168" s="2"/>
       <c r="I168" s="15"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="C169" s="2"/>
       <c r="F169" s="2"/>
       <c r="I169" s="15"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="C170" s="2"/>
       <c r="F170" s="2"/>
       <c r="I170" s="15"/>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="C171" s="2"/>
       <c r="F171" s="2"/>
       <c r="I171" s="15"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="C172" s="2"/>
       <c r="F172" s="2"/>
       <c r="I172" s="15"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="C173" s="2"/>
       <c r="F173" s="2"/>
       <c r="I173" s="15"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="C174" s="2"/>
       <c r="F174" s="2"/>
       <c r="I174" s="15"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="C175" s="2"/>
       <c r="F175" s="2"/>
       <c r="I175" s="15"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="C176" s="2"/>
       <c r="F176" s="2"/>
       <c r="I176" s="15"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="C177" s="2"/>
       <c r="F177" s="2"/>
       <c r="I177" s="15"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="C178" s="2"/>
       <c r="F178" s="2"/>
       <c r="I178" s="15"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="C179" s="2"/>
       <c r="F179" s="2"/>
       <c r="I179" s="15"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="C180" s="2"/>
       <c r="F180" s="2"/>
       <c r="I180" s="15"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="C181" s="2"/>
       <c r="F181" s="2"/>
       <c r="I181" s="15"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="C182" s="2"/>
       <c r="F182" s="2"/>
       <c r="I182" s="15"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="C183" s="2"/>
       <c r="F183" s="2"/>
       <c r="I183" s="15"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="C184" s="2"/>
       <c r="F184" s="2"/>
       <c r="I184" s="15"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="C185" s="2"/>
       <c r="F185" s="2"/>
       <c r="I185" s="15"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="C186" s="2"/>
       <c r="F186" s="2"/>
       <c r="I186" s="15"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="C187" s="2"/>
       <c r="F187" s="2"/>
       <c r="I187" s="15"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="C188" s="2"/>
       <c r="F188" s="2"/>
       <c r="I188" s="15"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="C189" s="2"/>
       <c r="F189" s="2"/>
       <c r="I189" s="15"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="C190" s="2"/>
       <c r="F190" s="2"/>
       <c r="I190" s="15"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="C191" s="2"/>
       <c r="F191" s="2"/>
       <c r="I191" s="15"/>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="C192" s="2"/>
       <c r="F192" s="2"/>
       <c r="I192" s="15"/>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="C193" s="2"/>
       <c r="F193" s="2"/>
       <c r="I193" s="15"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="C194" s="2"/>
       <c r="F194" s="2"/>
       <c r="I194" s="15"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="C195" s="2"/>
       <c r="F195" s="2"/>
       <c r="I195" s="15"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="C196" s="2"/>
       <c r="F196" s="2"/>
       <c r="I196" s="15"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="C197" s="2"/>
       <c r="F197" s="2"/>
       <c r="I197" s="15"/>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="C198" s="2"/>
       <c r="F198" s="2"/>
       <c r="I198" s="15"/>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="C199" s="2"/>
       <c r="F199" s="2"/>
       <c r="I199" s="15"/>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="C200" s="2"/>
       <c r="F200" s="2"/>
       <c r="I200" s="15"/>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="C201" s="2"/>
       <c r="F201" s="2"/>
       <c r="I201" s="15"/>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="C202" s="2"/>
       <c r="F202" s="2"/>
       <c r="I202" s="15"/>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="C203" s="2"/>
       <c r="F203" s="2"/>
       <c r="I203" s="15"/>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="C204" s="2"/>
       <c r="F204" s="2"/>
       <c r="I204" s="15"/>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="C205" s="2"/>
       <c r="F205" s="2"/>
       <c r="I205" s="15"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="C206" s="2"/>
       <c r="F206" s="2"/>
       <c r="I206" s="15"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="C207" s="2"/>
       <c r="F207" s="2"/>
       <c r="I207" s="15"/>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="C208" s="2"/>
       <c r="F208" s="2"/>
       <c r="I208" s="15"/>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="C209" s="2"/>
       <c r="F209" s="2"/>
       <c r="I209" s="15"/>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="C210" s="2"/>
       <c r="F210" s="2"/>
       <c r="I210" s="15"/>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="C211" s="2"/>
       <c r="F211" s="2"/>
       <c r="I211" s="15"/>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="C212" s="2"/>
       <c r="F212" s="2"/>
       <c r="I212" s="15"/>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="C213" s="2"/>
       <c r="F213" s="2"/>
       <c r="I213" s="15"/>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="C214" s="2"/>
       <c r="F214" s="2"/>
       <c r="I214" s="15"/>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="C215" s="2"/>
       <c r="F215" s="2"/>
       <c r="I215" s="15"/>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="C216" s="2"/>
       <c r="F216" s="2"/>
       <c r="I216" s="15"/>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="C217" s="2"/>
       <c r="F217" s="2"/>
       <c r="I217" s="15"/>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="C218" s="2"/>
       <c r="F218" s="2"/>
       <c r="I218" s="15"/>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="C219" s="2"/>
       <c r="F219" s="2"/>
       <c r="I219" s="15"/>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="C220" s="2"/>
       <c r="F220" s="2"/>
       <c r="I220" s="15"/>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="C221" s="2"/>
       <c r="F221" s="2"/>
       <c r="I221" s="15"/>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="C222" s="2"/>
       <c r="F222" s="2"/>
       <c r="I222" s="15"/>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="C223" s="2"/>
       <c r="F223" s="2"/>
       <c r="I223" s="15"/>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="C224" s="2"/>
       <c r="F224" s="2"/>
       <c r="I224" s="15"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="C225" s="2"/>
       <c r="F225" s="2"/>
       <c r="I225" s="15"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="C226" s="2"/>
       <c r="F226" s="2"/>
       <c r="I226" s="15"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="C227" s="2"/>
       <c r="F227" s="2"/>
       <c r="I227" s="15"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="C228" s="2"/>
       <c r="F228" s="2"/>
       <c r="I228" s="15"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="C229" s="2"/>
       <c r="F229" s="2"/>
       <c r="I229" s="15"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="C230" s="2"/>
       <c r="F230" s="2"/>
       <c r="I230" s="15"/>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="C231" s="2"/>
       <c r="F231" s="2"/>
       <c r="I231" s="15"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="C232" s="2"/>
       <c r="F232" s="2"/>
       <c r="I232" s="15"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="C233" s="2"/>
       <c r="F233" s="2"/>
       <c r="I233" s="15"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="C234" s="2"/>
       <c r="F234" s="2"/>
       <c r="I234" s="15"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="C235" s="2"/>
       <c r="F235" s="2"/>
       <c r="I235" s="15"/>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="C236" s="2"/>
       <c r="F236" s="2"/>
       <c r="I236" s="15"/>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="C237" s="2"/>
       <c r="F237" s="2"/>
       <c r="I237" s="15"/>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="C238" s="2"/>
       <c r="F238" s="2"/>
       <c r="I238" s="15"/>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="C239" s="2"/>
       <c r="F239" s="2"/>
       <c r="I239" s="15"/>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="C240" s="2"/>
       <c r="F240" s="2"/>
       <c r="I240" s="15"/>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="C241" s="2"/>
       <c r="F241" s="2"/>
       <c r="I241" s="15"/>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="C242" s="2"/>
       <c r="F242" s="2"/>
       <c r="I242" s="15"/>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="C243" s="2"/>
       <c r="F243" s="2"/>
       <c r="I243" s="15"/>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="C244" s="2"/>
       <c r="F244" s="2"/>
       <c r="I244" s="15"/>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="C245" s="2"/>
       <c r="F245" s="2"/>
       <c r="I245" s="15"/>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="C246" s="2"/>
       <c r="F246" s="2"/>
       <c r="I246" s="15"/>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="C247" s="2"/>
       <c r="F247" s="2"/>
       <c r="I247" s="15"/>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="C248" s="2"/>
       <c r="F248" s="2"/>
       <c r="I248" s="15"/>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="C249" s="2"/>
       <c r="F249" s="2"/>
       <c r="I249" s="15"/>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="C250" s="2"/>
       <c r="F250" s="2"/>
       <c r="I250" s="15"/>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="C251" s="2"/>
       <c r="F251" s="2"/>
       <c r="I251" s="15"/>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="C252" s="2"/>
       <c r="F252" s="2"/>
       <c r="I252" s="15"/>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="C253" s="2"/>
       <c r="F253" s="2"/>
       <c r="I253" s="15"/>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="C254" s="2"/>
       <c r="F254" s="2"/>
       <c r="I254" s="15"/>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="C255" s="2"/>
       <c r="F255" s="2"/>
       <c r="I255" s="15"/>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="C256" s="2"/>
       <c r="F256" s="2"/>
       <c r="I256" s="15"/>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="C257" s="2"/>
       <c r="F257" s="2"/>
       <c r="I257" s="15"/>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="C258" s="2"/>
       <c r="F258" s="2"/>
       <c r="I258" s="15"/>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="C259" s="2"/>
       <c r="F259" s="2"/>
       <c r="I259" s="15"/>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="C260" s="2"/>
       <c r="F260" s="2"/>
       <c r="I260" s="15"/>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="C261" s="2"/>
       <c r="F261" s="2"/>
       <c r="I261" s="15"/>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="C262" s="2"/>
       <c r="F262" s="2"/>
       <c r="I262" s="15"/>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="C263" s="2"/>
       <c r="F263" s="2"/>
       <c r="I263" s="15"/>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="C264" s="2"/>
       <c r="F264" s="2"/>
       <c r="I264" s="15"/>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="C265" s="2"/>
       <c r="F265" s="2"/>
       <c r="I265" s="15"/>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="C266" s="2"/>
       <c r="F266" s="2"/>
       <c r="I266" s="15"/>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="C267" s="2"/>
       <c r="F267" s="2"/>
       <c r="I267" s="15"/>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="C268" s="2"/>
       <c r="F268" s="2"/>
       <c r="I268" s="15"/>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
       <c r="C269" s="2"/>
       <c r="F269" s="2"/>
       <c r="I269" s="15"/>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="C270" s="2"/>
       <c r="F270" s="2"/>
       <c r="I270" s="15"/>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="C271" s="2"/>
       <c r="F271" s="2"/>
       <c r="I271" s="15"/>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="C272" s="2"/>
       <c r="F272" s="2"/>
       <c r="I272" s="15"/>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="C273" s="2"/>
       <c r="F273" s="2"/>
       <c r="I273" s="15"/>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="C274" s="2"/>
       <c r="F274" s="2"/>
       <c r="I274" s="15"/>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="C275" s="2"/>
       <c r="F275" s="2"/>
       <c r="I275" s="15"/>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="C276" s="2"/>
       <c r="F276" s="2"/>
       <c r="I276" s="15"/>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
       <c r="C277" s="2"/>
       <c r="F277" s="2"/>
       <c r="I277" s="15"/>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="C278" s="2"/>
       <c r="F278" s="2"/>
       <c r="I278" s="15"/>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="C279" s="2"/>
       <c r="F279" s="2"/>
       <c r="I279" s="15"/>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="C280" s="2"/>
       <c r="F280" s="2"/>
       <c r="I280" s="15"/>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="C281" s="2"/>
       <c r="F281" s="2"/>
       <c r="I281" s="15"/>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="C282" s="2"/>
       <c r="F282" s="2"/>
       <c r="I282" s="15"/>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
       <c r="C283" s="2"/>
       <c r="F283" s="2"/>
       <c r="I283" s="15"/>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="C284" s="2"/>
       <c r="F284" s="2"/>
       <c r="I284" s="15"/>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="C285" s="2"/>
       <c r="F285" s="2"/>
       <c r="I285" s="15"/>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="C286" s="2"/>
       <c r="F286" s="2"/>
       <c r="I286" s="15"/>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
       <c r="C287" s="2"/>
       <c r="F287" s="2"/>
       <c r="I287" s="15"/>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="C288" s="2"/>
       <c r="F288" s="2"/>
       <c r="I288" s="15"/>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
       <c r="C289" s="2"/>
       <c r="F289" s="2"/>
       <c r="I289" s="15"/>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="C290" s="2"/>
       <c r="F290" s="2"/>
       <c r="I290" s="15"/>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="C291" s="2"/>
       <c r="F291" s="2"/>
       <c r="I291" s="15"/>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="C292" s="2"/>
       <c r="F292" s="2"/>
       <c r="I292" s="15"/>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="C293" s="2"/>
       <c r="F293" s="2"/>
       <c r="I293" s="15"/>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="C294" s="2"/>
       <c r="F294" s="2"/>
       <c r="I294" s="15"/>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="C295" s="2"/>
       <c r="F295" s="2"/>
       <c r="I295" s="15"/>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="C296" s="2"/>
       <c r="F296" s="2"/>
       <c r="I296" s="15"/>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="C297" s="2"/>
       <c r="F297" s="2"/>
       <c r="I297" s="15"/>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="C298" s="2"/>
       <c r="F298" s="2"/>
       <c r="I298" s="15"/>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
       <c r="C299" s="2"/>
       <c r="F299" s="2"/>
       <c r="I299" s="15"/>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="C300" s="2"/>
       <c r="F300" s="2"/>
       <c r="I300" s="15"/>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="C301" s="2"/>
       <c r="F301" s="2"/>
       <c r="I301" s="15"/>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="C302" s="2"/>
       <c r="F302" s="2"/>
       <c r="I302" s="15"/>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="C303" s="2"/>
       <c r="F303" s="2"/>
       <c r="I303" s="15"/>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="C304" s="2"/>
       <c r="F304" s="2"/>
       <c r="I304" s="15"/>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
       <c r="C305" s="2"/>
       <c r="F305" s="2"/>
       <c r="I305" s="15"/>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="C306" s="2"/>
       <c r="F306" s="2"/>
       <c r="I306" s="15"/>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
       <c r="C307" s="2"/>
       <c r="F307" s="2"/>
       <c r="I307" s="15"/>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="C308" s="2"/>
       <c r="F308" s="2"/>
       <c r="I308" s="15"/>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
       <c r="C309" s="2"/>
       <c r="F309" s="2"/>
       <c r="I309" s="15"/>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="C310" s="2"/>
       <c r="F310" s="2"/>
       <c r="I310" s="15"/>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
       <c r="C311" s="2"/>
       <c r="F311" s="2"/>
       <c r="I311" s="15"/>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="C312" s="2"/>
       <c r="F312" s="2"/>
       <c r="I312" s="15"/>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="2"/>
       <c r="C313" s="2"/>
       <c r="F313" s="2"/>
       <c r="I313" s="15"/>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="C314" s="2"/>
       <c r="F314" s="2"/>
       <c r="I314" s="15"/>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="2"/>
       <c r="C315" s="2"/>
       <c r="F315" s="2"/>
       <c r="I315" s="15"/>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="C316" s="2"/>
       <c r="F316" s="2"/>
       <c r="I316" s="15"/>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="2"/>
       <c r="C317" s="2"/>
       <c r="F317" s="2"/>
       <c r="I317" s="15"/>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="C318" s="2"/>
       <c r="F318" s="2"/>
       <c r="I318" s="15"/>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="2"/>
       <c r="C319" s="2"/>
       <c r="F319" s="2"/>
       <c r="I319" s="15"/>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="C320" s="2"/>
       <c r="F320" s="2"/>
       <c r="I320" s="15"/>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="2"/>
       <c r="C321" s="2"/>
       <c r="F321" s="2"/>
       <c r="I321" s="15"/>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
       <c r="C322" s="2"/>
       <c r="F322" s="2"/>
       <c r="I322" s="15"/>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
       <c r="C323" s="2"/>
       <c r="F323" s="2"/>
       <c r="I323" s="15"/>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="C324" s="2"/>
       <c r="F324" s="2"/>
       <c r="I324" s="15"/>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
       <c r="C325" s="2"/>
       <c r="F325" s="2"/>
       <c r="I325" s="15"/>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="C326" s="2"/>
       <c r="F326" s="2"/>
       <c r="I326" s="15"/>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="2"/>
       <c r="C327" s="2"/>
       <c r="F327" s="2"/>
       <c r="I327" s="15"/>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="C328" s="2"/>
       <c r="F328" s="2"/>
       <c r="I328" s="15"/>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="2"/>
       <c r="C329" s="2"/>
       <c r="F329" s="2"/>
       <c r="I329" s="15"/>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="C330" s="2"/>
       <c r="F330" s="2"/>
       <c r="I330" s="15"/>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="2"/>
       <c r="C331" s="2"/>
       <c r="F331" s="2"/>
       <c r="I331" s="15"/>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="C332" s="2"/>
       <c r="F332" s="2"/>
       <c r="I332" s="15"/>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="2"/>
       <c r="C333" s="2"/>
       <c r="F333" s="2"/>
       <c r="I333" s="15"/>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="C334" s="2"/>
       <c r="F334" s="2"/>
       <c r="I334" s="15"/>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="2"/>
       <c r="C335" s="2"/>
       <c r="F335" s="2"/>
       <c r="I335" s="15"/>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="C336" s="2"/>
       <c r="F336" s="2"/>
       <c r="I336" s="15"/>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="2"/>
       <c r="C337" s="2"/>
       <c r="F337" s="2"/>
       <c r="I337" s="15"/>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="C338" s="2"/>
       <c r="F338" s="2"/>
       <c r="I338" s="15"/>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
       <c r="C339" s="2"/>
       <c r="F339" s="2"/>
       <c r="I339" s="15"/>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="C340" s="2"/>
       <c r="F340" s="2"/>
       <c r="I340" s="15"/>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="2"/>
       <c r="C341" s="2"/>
       <c r="F341" s="2"/>
       <c r="I341" s="15"/>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="C342" s="2"/>
       <c r="F342" s="2"/>
       <c r="I342" s="15"/>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="2"/>
       <c r="C343" s="2"/>
       <c r="F343" s="2"/>
       <c r="I343" s="15"/>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="C344" s="2"/>
       <c r="F344" s="2"/>
       <c r="I344" s="15"/>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="2"/>
       <c r="C345" s="2"/>
       <c r="F345" s="2"/>
       <c r="I345" s="15"/>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="C346" s="2"/>
       <c r="F346" s="2"/>
       <c r="I346" s="15"/>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="2"/>
       <c r="C347" s="2"/>
       <c r="F347" s="2"/>
       <c r="I347" s="15"/>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="C348" s="2"/>
       <c r="F348" s="2"/>
       <c r="I348" s="15"/>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="2"/>
       <c r="C349" s="2"/>
       <c r="F349" s="2"/>
       <c r="I349" s="15"/>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="C350" s="2"/>
       <c r="F350" s="2"/>
       <c r="I350" s="15"/>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="2"/>
       <c r="C351" s="2"/>
       <c r="F351" s="2"/>
       <c r="I351" s="15"/>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="C352" s="2"/>
       <c r="F352" s="2"/>
       <c r="I352" s="15"/>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="C353" s="2"/>
       <c r="F353" s="2"/>
       <c r="I353" s="15"/>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="C354" s="2"/>
       <c r="F354" s="2"/>
       <c r="I354" s="15"/>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="2"/>
       <c r="C355" s="2"/>
       <c r="F355" s="2"/>
       <c r="I355" s="15"/>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="C356" s="2"/>
       <c r="F356" s="2"/>
       <c r="I356" s="15"/>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="2"/>
       <c r="C357" s="2"/>
       <c r="F357" s="2"/>
       <c r="I357" s="15"/>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="C358" s="2"/>
       <c r="F358" s="2"/>
       <c r="I358" s="15"/>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="2"/>
       <c r="C359" s="2"/>
       <c r="F359" s="2"/>
       <c r="I359" s="15"/>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="C360" s="2"/>
       <c r="F360" s="2"/>
       <c r="I360" s="15"/>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="2"/>
       <c r="C361" s="2"/>
       <c r="F361" s="2"/>
       <c r="I361" s="15"/>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="C362" s="2"/>
       <c r="F362" s="2"/>
       <c r="I362" s="15"/>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="2"/>
       <c r="C363" s="2"/>
       <c r="F363" s="2"/>
       <c r="I363" s="15"/>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="C364" s="2"/>
       <c r="F364" s="2"/>
       <c r="I364" s="15"/>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="2"/>
       <c r="C365" s="2"/>
       <c r="F365" s="2"/>
       <c r="I365" s="15"/>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="C366" s="2"/>
       <c r="F366" s="2"/>
       <c r="I366" s="15"/>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
       <c r="C367" s="2"/>
       <c r="F367" s="2"/>
       <c r="I367" s="15"/>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="C368" s="2"/>
       <c r="F368" s="2"/>
       <c r="I368" s="15"/>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
       <c r="C369" s="2"/>
       <c r="F369" s="2"/>
       <c r="I369" s="15"/>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="C370" s="2"/>
       <c r="F370" s="2"/>
       <c r="I370" s="15"/>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
       <c r="C371" s="2"/>
       <c r="F371" s="2"/>
       <c r="I371" s="15"/>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="C372" s="2"/>
       <c r="F372" s="2"/>
       <c r="I372" s="15"/>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
       <c r="C373" s="2"/>
       <c r="F373" s="2"/>
       <c r="I373" s="15"/>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="C374" s="2"/>
       <c r="F374" s="2"/>
       <c r="I374" s="15"/>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="2"/>
       <c r="C375" s="2"/>
       <c r="F375" s="2"/>
       <c r="I375" s="15"/>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="C376" s="2"/>
       <c r="F376" s="2"/>
       <c r="I376" s="15"/>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="2"/>
       <c r="C377" s="2"/>
       <c r="F377" s="2"/>
       <c r="I377" s="15"/>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="C378" s="2"/>
       <c r="F378" s="2"/>
       <c r="I378" s="15"/>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="2"/>
       <c r="C379" s="2"/>
       <c r="F379" s="2"/>
       <c r="I379" s="15"/>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="C380" s="2"/>
       <c r="F380" s="2"/>
       <c r="I380" s="15"/>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
       <c r="C381" s="2"/>
       <c r="F381" s="2"/>
       <c r="I381" s="15"/>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="C382" s="2"/>
       <c r="F382" s="2"/>
       <c r="I382" s="15"/>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
       <c r="C383" s="2"/>
       <c r="F383" s="2"/>
       <c r="I383" s="15"/>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="C384" s="2"/>
       <c r="F384" s="2"/>
       <c r="I384" s="15"/>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
       <c r="C385" s="2"/>
       <c r="F385" s="2"/>
       <c r="I385" s="15"/>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="C386" s="2"/>
       <c r="F386" s="2"/>
       <c r="I386" s="15"/>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
       <c r="C387" s="2"/>
       <c r="F387" s="2"/>
       <c r="I387" s="15"/>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="C388" s="2"/>
       <c r="F388" s="2"/>
       <c r="I388" s="15"/>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
       <c r="C389" s="2"/>
       <c r="F389" s="2"/>
       <c r="I389" s="15"/>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="C390" s="2"/>
       <c r="F390" s="2"/>
       <c r="I390" s="15"/>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
       <c r="C391" s="2"/>
       <c r="F391" s="2"/>
       <c r="I391" s="15"/>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="C392" s="2"/>
       <c r="F392" s="2"/>
       <c r="I392" s="15"/>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
       <c r="C393" s="2"/>
       <c r="F393" s="2"/>
       <c r="I393" s="15"/>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="C394" s="2"/>
       <c r="F394" s="2"/>
       <c r="I394" s="15"/>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
       <c r="C395" s="2"/>
       <c r="F395" s="2"/>
       <c r="I395" s="15"/>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="C396" s="2"/>
       <c r="F396" s="2"/>
       <c r="I396" s="15"/>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
       <c r="C397" s="2"/>
       <c r="F397" s="2"/>
       <c r="I397" s="15"/>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="C398" s="2"/>
       <c r="F398" s="2"/>
       <c r="I398" s="15"/>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
       <c r="C399" s="2"/>
       <c r="F399" s="2"/>
       <c r="I399" s="15"/>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="C400" s="2"/>
       <c r="F400" s="2"/>
       <c r="I400" s="15"/>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
       <c r="C401" s="2"/>
       <c r="F401" s="2"/>
       <c r="I401" s="15"/>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="C402" s="2"/>
       <c r="F402" s="2"/>
       <c r="I402" s="15"/>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
       <c r="C403" s="2"/>
       <c r="F403" s="2"/>
       <c r="I403" s="15"/>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="C404" s="2"/>
       <c r="F404" s="2"/>
       <c r="I404" s="15"/>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
       <c r="C405" s="2"/>
       <c r="F405" s="2"/>
       <c r="I405" s="15"/>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="C406" s="2"/>
       <c r="F406" s="2"/>
       <c r="I406" s="15"/>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
       <c r="C407" s="2"/>
       <c r="F407" s="2"/>
       <c r="I407" s="15"/>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="C408" s="2"/>
       <c r="F408" s="2"/>
       <c r="I408" s="15"/>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="C409" s="2"/>
       <c r="F409" s="2"/>
       <c r="I409" s="15"/>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="C410" s="2"/>
       <c r="F410" s="2"/>
       <c r="I410" s="15"/>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
       <c r="C411" s="2"/>
       <c r="F411" s="2"/>
       <c r="I411" s="15"/>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="C412" s="2"/>
       <c r="F412" s="2"/>
       <c r="I412" s="15"/>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
       <c r="C413" s="2"/>
       <c r="F413" s="2"/>
       <c r="I413" s="15"/>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="C414" s="2"/>
       <c r="F414" s="2"/>
       <c r="I414" s="15"/>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
       <c r="C415" s="2"/>
       <c r="F415" s="2"/>
       <c r="I415" s="15"/>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="C416" s="2"/>
       <c r="F416" s="2"/>
       <c r="I416" s="15"/>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
       <c r="C417" s="2"/>
       <c r="F417" s="2"/>
       <c r="I417" s="15"/>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="C418" s="2"/>
       <c r="F418" s="2"/>
       <c r="I418" s="15"/>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
       <c r="C419" s="2"/>
       <c r="F419" s="2"/>
       <c r="I419" s="15"/>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="C420" s="2"/>
       <c r="F420" s="2"/>
       <c r="I420" s="15"/>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
       <c r="C421" s="2"/>
       <c r="F421" s="2"/>
       <c r="I421" s="15"/>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="C422" s="2"/>
       <c r="F422" s="2"/>
       <c r="I422" s="15"/>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
       <c r="C423" s="2"/>
       <c r="F423" s="2"/>
       <c r="I423" s="15"/>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="C424" s="2"/>
       <c r="F424" s="2"/>
       <c r="I424" s="15"/>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
       <c r="C425" s="2"/>
       <c r="F425" s="2"/>
       <c r="I425" s="15"/>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="C426" s="2"/>
       <c r="F426" s="2"/>
       <c r="I426" s="15"/>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
       <c r="C427" s="2"/>
       <c r="F427" s="2"/>
       <c r="I427" s="15"/>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="C428" s="2"/>
       <c r="F428" s="2"/>
       <c r="I428" s="15"/>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
       <c r="C429" s="2"/>
       <c r="F429" s="2"/>
       <c r="I429" s="15"/>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="C430" s="2"/>
       <c r="F430" s="2"/>
       <c r="I430" s="15"/>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
       <c r="C431" s="2"/>
       <c r="F431" s="2"/>
       <c r="I431" s="15"/>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="C432" s="2"/>
       <c r="F432" s="2"/>
       <c r="I432" s="15"/>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
       <c r="C433" s="2"/>
       <c r="F433" s="2"/>
       <c r="I433" s="15"/>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="C434" s="2"/>
       <c r="F434" s="2"/>
       <c r="I434" s="15"/>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
       <c r="C435" s="2"/>
       <c r="F435" s="2"/>
       <c r="I435" s="15"/>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="C436" s="2"/>
       <c r="F436" s="2"/>
       <c r="I436" s="15"/>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
       <c r="C437" s="2"/>
       <c r="F437" s="2"/>
       <c r="I437" s="15"/>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="C438" s="2"/>
       <c r="F438" s="2"/>
       <c r="I438" s="15"/>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
       <c r="C439" s="2"/>
       <c r="F439" s="2"/>
       <c r="I439" s="15"/>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="C440" s="2"/>
       <c r="F440" s="2"/>
       <c r="I440" s="15"/>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
       <c r="C441" s="2"/>
       <c r="F441" s="2"/>
       <c r="I441" s="15"/>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="C442" s="2"/>
       <c r="F442" s="2"/>
       <c r="I442" s="15"/>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
       <c r="C443" s="2"/>
       <c r="F443" s="2"/>
       <c r="I443" s="15"/>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="C444" s="2"/>
       <c r="F444" s="2"/>
       <c r="I444" s="15"/>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
       <c r="C445" s="2"/>
       <c r="F445" s="2"/>
       <c r="I445" s="15"/>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="C446" s="2"/>
       <c r="F446" s="2"/>
       <c r="I446" s="15"/>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
       <c r="C447" s="2"/>
       <c r="F447" s="2"/>
       <c r="I447" s="15"/>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="C448" s="2"/>
       <c r="F448" s="2"/>
       <c r="I448" s="15"/>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
       <c r="C449" s="2"/>
       <c r="F449" s="2"/>
       <c r="I449" s="15"/>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="C450" s="2"/>
       <c r="F450" s="2"/>
       <c r="I450" s="15"/>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
       <c r="C451" s="2"/>
       <c r="F451" s="2"/>
       <c r="I451" s="15"/>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="C452" s="2"/>
       <c r="F452" s="2"/>
       <c r="I452" s="15"/>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
       <c r="C453" s="2"/>
       <c r="F453" s="2"/>
       <c r="I453" s="15"/>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="C454" s="2"/>
       <c r="F454" s="2"/>
       <c r="I454" s="15"/>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" s="2"/>
       <c r="C455" s="2"/>
       <c r="F455" s="2"/>
       <c r="I455" s="15"/>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="C456" s="2"/>
       <c r="F456" s="2"/>
       <c r="I456" s="15"/>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" s="2"/>
       <c r="C457" s="2"/>
       <c r="F457" s="2"/>
       <c r="I457" s="15"/>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="C458" s="2"/>
       <c r="F458" s="2"/>
       <c r="I458" s="15"/>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" s="2"/>
       <c r="C459" s="2"/>
       <c r="F459" s="2"/>
       <c r="I459" s="15"/>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="C460" s="2"/>
       <c r="F460" s="2"/>
       <c r="I460" s="15"/>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" s="2"/>
       <c r="C461" s="2"/>
       <c r="F461" s="2"/>
       <c r="I461" s="15"/>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="C462" s="2"/>
       <c r="F462" s="2"/>
       <c r="I462" s="15"/>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" s="2"/>
       <c r="C463" s="2"/>
       <c r="F463" s="2"/>
       <c r="I463" s="15"/>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="C464" s="2"/>
       <c r="F464" s="2"/>
       <c r="I464" s="15"/>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" s="2"/>
       <c r="C465" s="2"/>
       <c r="F465" s="2"/>
       <c r="I465" s="15"/>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="C466" s="2"/>
       <c r="F466" s="2"/>
       <c r="I466" s="15"/>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" s="2"/>
       <c r="C467" s="2"/>
       <c r="F467" s="2"/>
       <c r="I467" s="15"/>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="C468" s="2"/>
       <c r="F468" s="2"/>
       <c r="I468" s="15"/>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" s="2"/>
       <c r="C469" s="2"/>
       <c r="F469" s="2"/>
       <c r="I469" s="15"/>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="C470" s="2"/>
       <c r="F470" s="2"/>
       <c r="I470" s="15"/>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" s="2"/>
       <c r="C471" s="2"/>
       <c r="F471" s="2"/>
       <c r="I471" s="15"/>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="C472" s="2"/>
       <c r="F472" s="2"/>
       <c r="I472" s="15"/>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" s="2"/>
       <c r="C473" s="2"/>
       <c r="F473" s="2"/>
       <c r="I473" s="15"/>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="C474" s="2"/>
       <c r="F474" s="2"/>
       <c r="I474" s="15"/>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" s="2"/>
       <c r="C475" s="2"/>
       <c r="F475" s="2"/>
       <c r="I475" s="15"/>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="C476" s="2"/>
       <c r="F476" s="2"/>
       <c r="I476" s="15"/>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" s="2"/>
       <c r="C477" s="2"/>
       <c r="F477" s="2"/>
       <c r="I477" s="15"/>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="C478" s="2"/>
       <c r="F478" s="2"/>
       <c r="I478" s="15"/>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" s="2"/>
       <c r="C479" s="2"/>
       <c r="F479" s="2"/>
       <c r="I479" s="15"/>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="C480" s="2"/>
       <c r="F480" s="2"/>
       <c r="I480" s="15"/>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" s="2"/>
       <c r="C481" s="2"/>
       <c r="F481" s="2"/>
       <c r="I481" s="15"/>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
       <c r="C482" s="2"/>
       <c r="F482" s="2"/>
       <c r="I482" s="15"/>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
       <c r="C483" s="2"/>
       <c r="F483" s="2"/>
       <c r="I483" s="15"/>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="C484" s="2"/>
       <c r="F484" s="2"/>
       <c r="I484" s="15"/>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
       <c r="C485" s="2"/>
       <c r="F485" s="2"/>
       <c r="I485" s="15"/>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="C486" s="2"/>
       <c r="F486" s="2"/>
       <c r="I486" s="15"/>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
       <c r="C487" s="2"/>
       <c r="F487" s="2"/>
       <c r="I487" s="15"/>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="C488" s="2"/>
       <c r="F488" s="2"/>
       <c r="I488" s="15"/>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" s="2"/>
       <c r="C489" s="2"/>
       <c r="F489" s="2"/>
       <c r="I489" s="15"/>
     </row>
-    <row r="490" spans="1:9">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="C490" s="2"/>
       <c r="F490" s="2"/>
       <c r="I490" s="15"/>
     </row>
-    <row r="491" spans="1:9">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
       <c r="C491" s="2"/>
       <c r="F491" s="2"/>
       <c r="I491" s="15"/>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="C492" s="2"/>
       <c r="F492" s="2"/>
       <c r="I492" s="15"/>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
       <c r="C493" s="2"/>
       <c r="F493" s="2"/>
       <c r="I493" s="15"/>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="C494" s="2"/>
       <c r="F494" s="2"/>
       <c r="I494" s="15"/>
     </row>
-    <row r="495" spans="1:9">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
       <c r="C495" s="2"/>
       <c r="F495" s="2"/>
       <c r="I495" s="15"/>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="C496" s="2"/>
       <c r="F496" s="2"/>
       <c r="I496" s="15"/>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
       <c r="C497" s="2"/>
       <c r="F497" s="2"/>
       <c r="I497" s="15"/>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="C498" s="2"/>
       <c r="F498" s="2"/>
       <c r="I498" s="15"/>
     </row>
-    <row r="499" spans="1:9">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
       <c r="C499" s="2"/>
       <c r="F499" s="2"/>
       <c r="I499" s="15"/>
     </row>
-    <row r="500" spans="1:9">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="C500" s="2"/>
       <c r="F500" s="2"/>
       <c r="I500" s="15"/>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
       <c r="C501" s="2"/>
       <c r="F501" s="2"/>
       <c r="I501" s="15"/>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
       <c r="C502" s="2"/>
       <c r="F502" s="2"/>
       <c r="I502" s="15"/>
     </row>
-    <row r="503" spans="1:9">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
       <c r="C503" s="2"/>
       <c r="F503" s="2"/>
       <c r="I503" s="15"/>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
       <c r="C504" s="2"/>
       <c r="F504" s="2"/>
       <c r="I504" s="15"/>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" s="2"/>
       <c r="C505" s="2"/>
       <c r="F505" s="2"/>
       <c r="I505" s="15"/>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
       <c r="C506" s="2"/>
       <c r="F506" s="2"/>
       <c r="I506" s="15"/>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" s="2"/>
       <c r="C507" s="2"/>
       <c r="F507" s="2"/>
       <c r="I507" s="15"/>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
       <c r="C508" s="2"/>
       <c r="F508" s="2"/>
       <c r="I508" s="15"/>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" s="2"/>
       <c r="C509" s="2"/>
       <c r="F509" s="2"/>
       <c r="I509" s="15"/>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
       <c r="C510" s="2"/>
       <c r="F510" s="2"/>
       <c r="I510" s="15"/>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" s="2"/>
       <c r="C511" s="2"/>
       <c r="F511" s="2"/>
       <c r="I511" s="15"/>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
       <c r="C512" s="2"/>
       <c r="F512" s="2"/>
       <c r="I512" s="15"/>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" s="2"/>
       <c r="C513" s="2"/>
       <c r="F513" s="2"/>
       <c r="I513" s="15"/>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
       <c r="C514" s="2"/>
       <c r="F514" s="2"/>
       <c r="I514" s="15"/>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515" s="2"/>
       <c r="C515" s="2"/>
       <c r="F515" s="2"/>
       <c r="I515" s="15"/>
     </row>
-    <row r="516" spans="1:9">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
       <c r="C516" s="2"/>
       <c r="F516" s="2"/>
       <c r="I516" s="15"/>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" s="2"/>
       <c r="C517" s="2"/>
       <c r="F517" s="2"/>
       <c r="I517" s="15"/>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
       <c r="C518" s="2"/>
       <c r="F518" s="2"/>
       <c r="I518" s="15"/>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" s="2"/>
       <c r="C519" s="2"/>
       <c r="F519" s="2"/>
       <c r="I519" s="15"/>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
       <c r="C520" s="2"/>
       <c r="F520" s="2"/>
       <c r="I520" s="15"/>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" s="2"/>
       <c r="C521" s="2"/>
       <c r="F521" s="2"/>
       <c r="I521" s="15"/>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
       <c r="C522" s="2"/>
       <c r="F522" s="2"/>
       <c r="I522" s="15"/>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" s="2"/>
       <c r="C523" s="2"/>
       <c r="F523" s="2"/>
       <c r="I523" s="15"/>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
       <c r="C524" s="2"/>
       <c r="F524" s="2"/>
       <c r="I524" s="15"/>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" s="2"/>
       <c r="C525" s="2"/>
       <c r="F525" s="2"/>
       <c r="I525" s="15"/>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
       <c r="C526" s="2"/>
       <c r="F526" s="2"/>
       <c r="I526" s="15"/>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" s="2"/>
       <c r="C527" s="2"/>
       <c r="F527" s="2"/>
       <c r="I527" s="15"/>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
       <c r="C528" s="2"/>
       <c r="F528" s="2"/>
       <c r="I528" s="15"/>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" s="2"/>
       <c r="C529" s="2"/>
       <c r="F529" s="2"/>
       <c r="I529" s="15"/>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
       <c r="C530" s="2"/>
       <c r="F530" s="2"/>
       <c r="I530" s="15"/>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" s="2"/>
       <c r="C531" s="2"/>
       <c r="F531" s="2"/>
       <c r="I531" s="15"/>
     </row>
-    <row r="532" spans="1:9">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
       <c r="C532" s="2"/>
       <c r="F532" s="2"/>
       <c r="I532" s="15"/>
     </row>
-    <row r="533" spans="1:9">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" s="2"/>
       <c r="C533" s="2"/>
       <c r="F533" s="2"/>
       <c r="I533" s="15"/>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
       <c r="C534" s="2"/>
       <c r="F534" s="2"/>
       <c r="I534" s="15"/>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" s="2"/>
       <c r="C535" s="2"/>
       <c r="F535" s="2"/>
       <c r="I535" s="15"/>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
       <c r="C536" s="2"/>
       <c r="F536" s="2"/>
       <c r="I536" s="15"/>
     </row>
-    <row r="537" spans="1:9">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" s="2"/>
       <c r="C537" s="2"/>
       <c r="F537" s="2"/>
       <c r="I537" s="15"/>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
       <c r="C538" s="2"/>
       <c r="F538" s="2"/>
       <c r="I538" s="15"/>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" s="2"/>
       <c r="C539" s="2"/>
       <c r="F539" s="2"/>
       <c r="I539" s="15"/>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
       <c r="C540" s="2"/>
       <c r="F540" s="2"/>
       <c r="I540" s="15"/>
     </row>
-    <row r="541" spans="1:9">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" s="2"/>
       <c r="C541" s="2"/>
       <c r="F541" s="2"/>
       <c r="I541" s="15"/>
     </row>
-    <row r="542" spans="1:9">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
       <c r="C542" s="2"/>
       <c r="F542" s="2"/>
       <c r="I542" s="15"/>
     </row>
-    <row r="543" spans="1:9">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" s="2"/>
       <c r="C543" s="2"/>
       <c r="F543" s="2"/>
       <c r="I543" s="15"/>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
       <c r="C544" s="2"/>
       <c r="F544" s="2"/>
       <c r="I544" s="15"/>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" s="2"/>
       <c r="C545" s="2"/>
       <c r="F545" s="2"/>
       <c r="I545" s="15"/>
     </row>
-    <row r="546" spans="1:9">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
       <c r="C546" s="2"/>
       <c r="F546" s="2"/>
       <c r="I546" s="15"/>
     </row>
-    <row r="547" spans="1:9">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" s="2"/>
       <c r="C547" s="2"/>
       <c r="F547" s="2"/>
       <c r="I547" s="15"/>
     </row>
-    <row r="548" spans="1:9">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
       <c r="C548" s="2"/>
       <c r="F548" s="2"/>
       <c r="I548" s="15"/>
     </row>
-    <row r="549" spans="1:9">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" s="2"/>
       <c r="C549" s="2"/>
       <c r="F549" s="2"/>
       <c r="I549" s="15"/>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
       <c r="C550" s="2"/>
       <c r="F550" s="2"/>
       <c r="I550" s="15"/>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" s="2"/>
       <c r="C551" s="2"/>
       <c r="F551" s="2"/>
       <c r="I551" s="15"/>
     </row>
-    <row r="552" spans="1:9">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
       <c r="C552" s="2"/>
       <c r="F552" s="2"/>
       <c r="I552" s="15"/>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" s="2"/>
       <c r="C553" s="2"/>
       <c r="F553" s="2"/>
       <c r="I553" s="15"/>
     </row>
-    <row r="554" spans="1:9">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
       <c r="C554" s="2"/>
       <c r="F554" s="2"/>
       <c r="I554" s="15"/>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" s="2"/>
       <c r="C555" s="2"/>
       <c r="F555" s="2"/>
       <c r="I555" s="15"/>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
       <c r="C556" s="2"/>
       <c r="F556" s="2"/>
       <c r="I556" s="15"/>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" s="2"/>
       <c r="C557" s="2"/>
       <c r="F557" s="2"/>
       <c r="I557" s="15"/>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
       <c r="C558" s="2"/>
       <c r="F558" s="2"/>
       <c r="I558" s="15"/>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" s="2"/>
       <c r="C559" s="2"/>
       <c r="F559" s="2"/>
       <c r="I559" s="15"/>
     </row>
-    <row r="560" spans="1:9">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
       <c r="C560" s="2"/>
       <c r="F560" s="2"/>
       <c r="I560" s="15"/>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" s="2"/>
       <c r="C561" s="2"/>
       <c r="F561" s="2"/>
       <c r="I561" s="15"/>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
       <c r="C562" s="2"/>
       <c r="F562" s="2"/>
       <c r="I562" s="15"/>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" s="2"/>
       <c r="C563" s="2"/>
       <c r="F563" s="2"/>
       <c r="I563" s="15"/>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
       <c r="C564" s="2"/>
       <c r="F564" s="2"/>
       <c r="I564" s="15"/>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" s="2"/>
       <c r="C565" s="2"/>
       <c r="F565" s="2"/>
       <c r="I565" s="15"/>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
       <c r="C566" s="2"/>
       <c r="F566" s="2"/>
       <c r="I566" s="15"/>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" s="2"/>
       <c r="C567" s="2"/>
       <c r="F567" s="2"/>
       <c r="I567" s="15"/>
     </row>
-    <row r="568" spans="1:9">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
       <c r="C568" s="2"/>
       <c r="F568" s="2"/>
       <c r="I568" s="15"/>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" s="2"/>
       <c r="C569" s="2"/>
       <c r="F569" s="2"/>
       <c r="I569" s="15"/>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
       <c r="C570" s="2"/>
       <c r="F570" s="2"/>
       <c r="I570" s="15"/>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" s="2"/>
       <c r="C571" s="2"/>
       <c r="F571" s="2"/>
       <c r="I571" s="15"/>
     </row>
-    <row r="572" spans="1:9">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
       <c r="C572" s="2"/>
       <c r="F572" s="2"/>
       <c r="I572" s="15"/>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" s="2"/>
       <c r="C573" s="2"/>
       <c r="F573" s="2"/>
       <c r="I573" s="15"/>
     </row>
-    <row r="574" spans="1:9">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
       <c r="C574" s="2"/>
       <c r="F574" s="2"/>
       <c r="I574" s="15"/>
     </row>
-    <row r="575" spans="1:9">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" s="2"/>
       <c r="C575" s="2"/>
       <c r="F575" s="2"/>
       <c r="I575" s="15"/>
     </row>
-    <row r="576" spans="1:9">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
       <c r="C576" s="2"/>
       <c r="F576" s="2"/>
       <c r="I576" s="15"/>
     </row>
-    <row r="577" spans="1:9">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" s="2"/>
       <c r="C577" s="2"/>
       <c r="F577" s="2"/>
       <c r="I577" s="15"/>
     </row>
-    <row r="578" spans="1:9">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
       <c r="C578" s="2"/>
       <c r="F578" s="2"/>
       <c r="I578" s="15"/>
     </row>
-    <row r="579" spans="1:9">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" s="2"/>
       <c r="C579" s="2"/>
       <c r="F579" s="2"/>
       <c r="I579" s="15"/>
     </row>
-    <row r="580" spans="1:9">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
       <c r="C580" s="2"/>
       <c r="F580" s="2"/>
       <c r="I580" s="15"/>
     </row>
-    <row r="581" spans="1:9">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" s="2"/>
       <c r="C581" s="2"/>
       <c r="F581" s="2"/>
       <c r="I581" s="15"/>
     </row>
-    <row r="582" spans="1:9">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
       <c r="C582" s="2"/>
       <c r="F582" s="2"/>
       <c r="I582" s="15"/>
     </row>
-    <row r="583" spans="1:9">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" s="2"/>
       <c r="C583" s="2"/>
       <c r="F583" s="2"/>
       <c r="I583" s="15"/>
     </row>
-    <row r="584" spans="1:9">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
       <c r="C584" s="2"/>
       <c r="F584" s="2"/>
       <c r="I584" s="15"/>
     </row>
-    <row r="585" spans="1:9">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" s="2"/>
       <c r="C585" s="2"/>
       <c r="F585" s="2"/>
       <c r="I585" s="15"/>
     </row>
-    <row r="586" spans="1:9">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
       <c r="C586" s="2"/>
       <c r="F586" s="2"/>
       <c r="I586" s="15"/>
     </row>
-    <row r="587" spans="1:9">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" s="2"/>
       <c r="C587" s="2"/>
       <c r="F587" s="2"/>
       <c r="I587" s="15"/>
     </row>
-    <row r="588" spans="1:9">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
       <c r="C588" s="2"/>
       <c r="F588" s="2"/>
       <c r="I588" s="15"/>
     </row>
-    <row r="589" spans="1:9">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" s="2"/>
       <c r="C589" s="2"/>
       <c r="F589" s="2"/>
       <c r="I589" s="15"/>
     </row>
-    <row r="590" spans="1:9">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
       <c r="C590" s="2"/>
       <c r="F590" s="2"/>
       <c r="I590" s="15"/>
     </row>
-    <row r="591" spans="1:9">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" s="2"/>
       <c r="C591" s="2"/>
       <c r="F591" s="2"/>
       <c r="I591" s="15"/>
     </row>
-    <row r="592" spans="1:9">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
       <c r="C592" s="2"/>
       <c r="F592" s="2"/>
       <c r="I592" s="15"/>
     </row>
-    <row r="593" spans="1:9">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" s="2"/>
       <c r="C593" s="2"/>
       <c r="F593" s="2"/>
       <c r="I593" s="15"/>
     </row>
-    <row r="594" spans="1:9">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
       <c r="C594" s="2"/>
       <c r="F594" s="2"/>
       <c r="I594" s="15"/>
     </row>
-    <row r="595" spans="1:9">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" s="2"/>
       <c r="C595" s="2"/>
       <c r="F595" s="2"/>
       <c r="I595" s="15"/>
     </row>
-    <row r="596" spans="1:9">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
       <c r="C596" s="2"/>
       <c r="F596" s="2"/>
       <c r="I596" s="15"/>
     </row>
-    <row r="597" spans="1:9">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" s="2"/>
       <c r="C597" s="2"/>
       <c r="F597" s="2"/>
       <c r="I597" s="15"/>
     </row>
-    <row r="598" spans="1:9">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
       <c r="C598" s="2"/>
       <c r="F598" s="2"/>
       <c r="I598" s="15"/>
     </row>
-    <row r="599" spans="1:9">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" s="2"/>
       <c r="C599" s="2"/>
       <c r="F599" s="2"/>
       <c r="I599" s="15"/>
     </row>
-    <row r="600" spans="1:9">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
       <c r="C600" s="2"/>
       <c r="F600" s="2"/>
       <c r="I600" s="15"/>
     </row>
-    <row r="601" spans="1:9">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" s="2"/>
       <c r="C601" s="2"/>
       <c r="F601" s="2"/>
       <c r="I601" s="15"/>
     </row>
-    <row r="602" spans="1:9">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
       <c r="C602" s="2"/>
       <c r="F602" s="2"/>
       <c r="I602" s="15"/>
     </row>
-    <row r="603" spans="1:9">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" s="2"/>
       <c r="C603" s="2"/>
       <c r="F603" s="2"/>
       <c r="I603" s="15"/>
     </row>
-    <row r="604" spans="1:9">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
       <c r="C604" s="2"/>
       <c r="F604" s="2"/>
       <c r="I604" s="15"/>
     </row>
-    <row r="605" spans="1:9">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" s="2"/>
       <c r="C605" s="2"/>
       <c r="F605" s="2"/>
       <c r="I605" s="15"/>
     </row>
-    <row r="606" spans="1:9">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
       <c r="C606" s="2"/>
       <c r="F606" s="2"/>
       <c r="I606" s="15"/>
     </row>
-    <row r="607" spans="1:9">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" s="2"/>
       <c r="C607" s="2"/>
       <c r="F607" s="2"/>
       <c r="I607" s="15"/>
     </row>
-    <row r="608" spans="1:9">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
       <c r="C608" s="2"/>
       <c r="F608" s="2"/>
       <c r="I608" s="15"/>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609" s="2"/>
       <c r="C609" s="2"/>
       <c r="F609" s="2"/>
       <c r="I609" s="15"/>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
       <c r="C610" s="2"/>
       <c r="F610" s="2"/>
       <c r="I610" s="15"/>
     </row>
-    <row r="611" spans="1:9">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" s="2"/>
       <c r="C611" s="2"/>
       <c r="F611" s="2"/>
       <c r="I611" s="15"/>
     </row>
-    <row r="612" spans="1:9">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
       <c r="C612" s="2"/>
       <c r="F612" s="2"/>
       <c r="I612" s="15"/>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613" s="2"/>
       <c r="C613" s="2"/>
       <c r="F613" s="2"/>
       <c r="I613" s="15"/>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
       <c r="C614" s="2"/>
       <c r="F614" s="2"/>
       <c r="I614" s="15"/>
     </row>
-    <row r="615" spans="1:9">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615" s="2"/>
       <c r="C615" s="2"/>
       <c r="F615" s="2"/>
       <c r="I615" s="15"/>
     </row>
-    <row r="616" spans="1:9">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
       <c r="C616" s="2"/>
       <c r="F616" s="2"/>
       <c r="I616" s="15"/>
     </row>
-    <row r="617" spans="1:9">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" s="2"/>
       <c r="C617" s="2"/>
       <c r="F617" s="2"/>
       <c r="I617" s="15"/>
     </row>
-    <row r="618" spans="1:9">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
       <c r="C618" s="2"/>
       <c r="F618" s="2"/>
       <c r="I618" s="15"/>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619" s="2"/>
       <c r="C619" s="2"/>
       <c r="F619" s="2"/>
       <c r="I619" s="15"/>
     </row>
-    <row r="620" spans="1:9">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
       <c r="C620" s="2"/>
       <c r="F620" s="2"/>
       <c r="I620" s="15"/>
     </row>
-    <row r="621" spans="1:9">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621" s="2"/>
       <c r="C621" s="2"/>
       <c r="F621" s="2"/>
       <c r="I621" s="15"/>
     </row>
-    <row r="622" spans="1:9">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
       <c r="C622" s="2"/>
       <c r="F622" s="2"/>
       <c r="I622" s="15"/>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623" s="2"/>
       <c r="C623" s="2"/>
       <c r="F623" s="2"/>
       <c r="I623" s="15"/>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
       <c r="C624" s="2"/>
       <c r="F624" s="2"/>
       <c r="I624" s="15"/>
     </row>
-    <row r="625" spans="1:9">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A625" s="2"/>
       <c r="C625" s="2"/>
       <c r="F625" s="2"/>
       <c r="I625" s="15"/>
     </row>
-    <row r="626" spans="1:9">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
       <c r="C626" s="2"/>
       <c r="F626" s="2"/>
       <c r="I626" s="15"/>
     </row>
-    <row r="627" spans="1:9">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627" s="2"/>
       <c r="C627" s="2"/>
       <c r="F627" s="2"/>
       <c r="I627" s="15"/>
     </row>
-    <row r="628" spans="1:9">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
       <c r="C628" s="2"/>
       <c r="F628" s="2"/>
       <c r="I628" s="15"/>
     </row>
-    <row r="629" spans="1:9">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A629" s="2"/>
       <c r="C629" s="2"/>
       <c r="F629" s="2"/>
       <c r="I629" s="15"/>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
       <c r="C630" s="2"/>
       <c r="F630" s="2"/>
       <c r="I630" s="15"/>
     </row>
-    <row r="631" spans="1:9">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A631" s="2"/>
       <c r="C631" s="2"/>
       <c r="F631" s="2"/>
       <c r="I631" s="15"/>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
       <c r="C632" s="2"/>
       <c r="F632" s="2"/>
       <c r="I632" s="15"/>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633" s="2"/>
       <c r="C633" s="2"/>
       <c r="F633" s="2"/>
       <c r="I633" s="15"/>
     </row>
-    <row r="634" spans="1:9">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
       <c r="C634" s="2"/>
       <c r="F634" s="2"/>
       <c r="I634" s="15"/>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A635" s="2"/>
       <c r="C635" s="2"/>
       <c r="F635" s="2"/>
       <c r="I635" s="15"/>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
       <c r="C636" s="2"/>
       <c r="F636" s="2"/>
       <c r="I636" s="15"/>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A637" s="2"/>
       <c r="C637" s="2"/>
       <c r="F637" s="2"/>
       <c r="I637" s="15"/>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
       <c r="C638" s="2"/>
       <c r="F638" s="2"/>
       <c r="I638" s="15"/>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A639" s="2"/>
       <c r="C639" s="2"/>
       <c r="F639" s="2"/>
       <c r="I639" s="15"/>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
       <c r="C640" s="2"/>
       <c r="F640" s="2"/>
       <c r="I640" s="15"/>
     </row>
-    <row r="641" spans="1:9">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A641" s="2"/>
       <c r="C641" s="2"/>
       <c r="F641" s="2"/>
       <c r="I641" s="15"/>
     </row>
-    <row r="642" spans="1:9">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
       <c r="C642" s="2"/>
       <c r="F642" s="2"/>
       <c r="I642" s="15"/>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643" s="2"/>
       <c r="C643" s="2"/>
       <c r="F643" s="2"/>
       <c r="I643" s="15"/>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
       <c r="C644" s="2"/>
       <c r="F644" s="2"/>
       <c r="I644" s="15"/>
     </row>
-    <row r="645" spans="1:9">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645" s="2"/>
       <c r="C645" s="2"/>
       <c r="F645" s="2"/>
       <c r="I645" s="15"/>
     </row>
-    <row r="646" spans="1:9">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
       <c r="C646" s="2"/>
       <c r="F646" s="2"/>
       <c r="I646" s="15"/>
     </row>
-    <row r="647" spans="1:9">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
       <c r="C647" s="2"/>
       <c r="F647" s="2"/>
       <c r="I647" s="15"/>
     </row>
-    <row r="648" spans="1:9">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
       <c r="C648" s="2"/>
       <c r="F648" s="2"/>
       <c r="I648" s="15"/>
     </row>
-    <row r="649" spans="1:9">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A649" s="2"/>
       <c r="C649" s="2"/>
       <c r="F649" s="2"/>
       <c r="I649" s="15"/>
     </row>
-    <row r="650" spans="1:9">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
       <c r="C650" s="2"/>
       <c r="F650" s="2"/>
       <c r="I650" s="15"/>
     </row>
-    <row r="651" spans="1:9">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A651" s="2"/>
       <c r="C651" s="2"/>
       <c r="F651" s="2"/>
       <c r="I651" s="15"/>
     </row>
-    <row r="652" spans="1:9">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
       <c r="C652" s="2"/>
       <c r="F652" s="2"/>
       <c r="I652" s="15"/>
     </row>
-    <row r="653" spans="1:9">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A653" s="2"/>
       <c r="C653" s="2"/>
       <c r="F653" s="2"/>
       <c r="I653" s="15"/>
     </row>
-    <row r="654" spans="1:9">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
       <c r="C654" s="2"/>
       <c r="F654" s="2"/>
       <c r="I654" s="15"/>
     </row>
-    <row r="655" spans="1:9">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A655" s="2"/>
       <c r="C655" s="2"/>
       <c r="F655" s="2"/>
       <c r="I655" s="15"/>
     </row>
-    <row r="656" spans="1:9">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
       <c r="C656" s="2"/>
       <c r="F656" s="2"/>
       <c r="I656" s="15"/>
     </row>
-    <row r="657" spans="1:9">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A657" s="2"/>
       <c r="C657" s="2"/>
       <c r="F657" s="2"/>
       <c r="I657" s="15"/>
     </row>
-    <row r="658" spans="1:9">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
       <c r="C658" s="2"/>
       <c r="F658" s="2"/>
       <c r="I658" s="15"/>
     </row>
-    <row r="659" spans="1:9">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A659" s="2"/>
       <c r="C659" s="2"/>
       <c r="F659" s="2"/>
       <c r="I659" s="15"/>
     </row>
-    <row r="660" spans="1:9">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
       <c r="C660" s="2"/>
       <c r="F660" s="2"/>
       <c r="I660" s="15"/>
     </row>
-    <row r="661" spans="1:9">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A661" s="2"/>
       <c r="C661" s="2"/>
       <c r="F661" s="2"/>
       <c r="I661" s="15"/>
     </row>
-    <row r="662" spans="1:9">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
       <c r="C662" s="2"/>
       <c r="F662" s="2"/>
       <c r="I662" s="15"/>
     </row>
-    <row r="663" spans="1:9">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A663" s="2"/>
       <c r="C663" s="2"/>
       <c r="F663" s="2"/>
       <c r="I663" s="15"/>
     </row>
-    <row r="664" spans="1:9">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
       <c r="C664" s="2"/>
       <c r="F664" s="2"/>
       <c r="I664" s="15"/>
     </row>
-    <row r="665" spans="1:9">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A665" s="2"/>
       <c r="C665" s="2"/>
       <c r="F665" s="2"/>
       <c r="I665" s="15"/>
     </row>
-    <row r="666" spans="1:9">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
       <c r="C666" s="2"/>
       <c r="F666" s="2"/>
       <c r="I666" s="15"/>
     </row>
-    <row r="667" spans="1:9">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A667" s="2"/>
       <c r="C667" s="2"/>
       <c r="F667" s="2"/>
       <c r="I667" s="15"/>
     </row>
-    <row r="668" spans="1:9">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
       <c r="C668" s="2"/>
       <c r="F668" s="2"/>
       <c r="I668" s="15"/>
     </row>
-    <row r="669" spans="1:9">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A669" s="2"/>
       <c r="C669" s="2"/>
       <c r="F669" s="2"/>
       <c r="I669" s="15"/>
     </row>
-    <row r="670" spans="1:9">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
       <c r="C670" s="2"/>
       <c r="F670" s="2"/>
       <c r="I670" s="15"/>
     </row>
-    <row r="671" spans="1:9">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A671" s="2"/>
       <c r="C671" s="2"/>
       <c r="F671" s="2"/>
       <c r="I671" s="15"/>
     </row>
-    <row r="672" spans="1:9">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
       <c r="C672" s="2"/>
       <c r="F672" s="2"/>
       <c r="I672" s="15"/>
     </row>
-    <row r="673" spans="1:9">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A673" s="2"/>
       <c r="C673" s="2"/>
       <c r="F673" s="2"/>
       <c r="I673" s="15"/>
     </row>
-    <row r="674" spans="1:9">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
       <c r="C674" s="2"/>
       <c r="F674" s="2"/>
       <c r="I674" s="15"/>
     </row>
-    <row r="675" spans="1:9">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675" s="2"/>
       <c r="C675" s="2"/>
       <c r="F675" s="2"/>
       <c r="I675" s="15"/>
     </row>
-    <row r="676" spans="1:9">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
       <c r="C676" s="2"/>
       <c r="F676" s="2"/>
       <c r="I676" s="15"/>
     </row>
-    <row r="677" spans="1:9">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A677" s="2"/>
       <c r="C677" s="2"/>
       <c r="F677" s="2"/>
       <c r="I677" s="15"/>
     </row>
-    <row r="678" spans="1:9">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
       <c r="C678" s="2"/>
       <c r="F678" s="2"/>
       <c r="I678" s="15"/>
     </row>
-    <row r="679" spans="1:9">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A679" s="2"/>
       <c r="C679" s="2"/>
       <c r="F679" s="2"/>
       <c r="I679" s="15"/>
     </row>
-    <row r="680" spans="1:9">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
       <c r="C680" s="2"/>
       <c r="F680" s="2"/>
       <c r="I680" s="15"/>
     </row>
-    <row r="681" spans="1:9">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681" s="2"/>
       <c r="C681" s="2"/>
       <c r="F681" s="2"/>
       <c r="I681" s="15"/>
     </row>
-    <row r="682" spans="1:9">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
       <c r="C682" s="2"/>
       <c r="F682" s="2"/>
       <c r="I682" s="15"/>
     </row>
-    <row r="683" spans="1:9">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683" s="2"/>
       <c r="C683" s="2"/>
       <c r="F683" s="2"/>
       <c r="I683" s="15"/>
     </row>
-    <row r="684" spans="1:9">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
       <c r="C684" s="2"/>
       <c r="F684" s="2"/>
       <c r="I684" s="15"/>
     </row>
-    <row r="685" spans="1:9">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685" s="2"/>
       <c r="C685" s="2"/>
       <c r="F685" s="2"/>
       <c r="I685" s="15"/>
     </row>
-    <row r="686" spans="1:9">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
       <c r="C686" s="2"/>
       <c r="F686" s="2"/>
       <c r="I686" s="15"/>
     </row>
-    <row r="687" spans="1:9">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A687" s="2"/>
       <c r="C687" s="2"/>
       <c r="F687" s="2"/>
       <c r="I687" s="15"/>
     </row>
-    <row r="688" spans="1:9">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
       <c r="C688" s="2"/>
       <c r="F688" s="2"/>
       <c r="I688" s="15"/>
     </row>
-    <row r="689" spans="1:9">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A689" s="2"/>
       <c r="C689" s="2"/>
       <c r="F689" s="2"/>
       <c r="I689" s="15"/>
     </row>
-    <row r="690" spans="1:9">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
       <c r="C690" s="2"/>
       <c r="F690" s="2"/>
       <c r="I690" s="15"/>
     </row>
-    <row r="691" spans="1:9">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A691" s="2"/>
       <c r="C691" s="2"/>
       <c r="F691" s="2"/>
       <c r="I691" s="15"/>
     </row>
-    <row r="692" spans="1:9">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
       <c r="C692" s="2"/>
       <c r="F692" s="2"/>
       <c r="I692" s="15"/>
     </row>
-    <row r="693" spans="1:9">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A693" s="2"/>
       <c r="C693" s="2"/>
       <c r="F693" s="2"/>
       <c r="I693" s="15"/>
     </row>
-    <row r="694" spans="1:9">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
       <c r="C694" s="2"/>
       <c r="F694" s="2"/>
       <c r="I694" s="15"/>
     </row>
-    <row r="695" spans="1:9">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
       <c r="C695" s="2"/>
       <c r="F695" s="2"/>
       <c r="I695" s="15"/>
     </row>
-    <row r="696" spans="1:9">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
       <c r="C696" s="2"/>
       <c r="F696" s="2"/>
       <c r="I696" s="15"/>
     </row>
-    <row r="697" spans="1:9">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A697" s="2"/>
       <c r="C697" s="2"/>
       <c r="F697" s="2"/>
       <c r="I697" s="15"/>
     </row>
-    <row r="698" spans="1:9">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
       <c r="C698" s="2"/>
       <c r="F698" s="2"/>
       <c r="I698" s="15"/>
     </row>
-    <row r="699" spans="1:9">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A699" s="2"/>
       <c r="C699" s="2"/>
       <c r="F699" s="2"/>
       <c r="I699" s="15"/>
     </row>
-    <row r="700" spans="1:9">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
       <c r="C700" s="2"/>
       <c r="F700" s="2"/>
       <c r="I700" s="15"/>
     </row>
-    <row r="701" spans="1:9">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A701" s="2"/>
       <c r="C701" s="2"/>
       <c r="F701" s="2"/>
       <c r="I701" s="15"/>
     </row>
-    <row r="702" spans="1:9">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
       <c r="C702" s="2"/>
       <c r="F702" s="2"/>
       <c r="I702" s="15"/>
     </row>
-    <row r="703" spans="1:9">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A703" s="2"/>
       <c r="C703" s="2"/>
       <c r="F703" s="2"/>
       <c r="I703" s="15"/>
     </row>
-    <row r="704" spans="1:9">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
       <c r="C704" s="2"/>
       <c r="F704" s="2"/>
       <c r="I704" s="15"/>
     </row>
-    <row r="705" spans="1:9">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A705" s="2"/>
       <c r="C705" s="2"/>
       <c r="F705" s="2"/>
       <c r="I705" s="15"/>
     </row>
-    <row r="706" spans="1:9">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
       <c r="C706" s="2"/>
       <c r="F706" s="2"/>
       <c r="I706" s="15"/>
     </row>
-    <row r="707" spans="1:9">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A707" s="2"/>
       <c r="C707" s="2"/>
       <c r="F707" s="2"/>
       <c r="I707" s="15"/>
     </row>
-    <row r="708" spans="1:9">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
       <c r="C708" s="2"/>
       <c r="F708" s="2"/>
       <c r="I708" s="15"/>
     </row>
-    <row r="709" spans="1:9">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A709" s="2"/>
       <c r="C709" s="2"/>
       <c r="F709" s="2"/>
       <c r="I709" s="15"/>
     </row>
-    <row r="710" spans="1:9">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
       <c r="C710" s="2"/>
       <c r="F710" s="2"/>
       <c r="I710" s="15"/>
     </row>
-    <row r="711" spans="1:9">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A711" s="2"/>
       <c r="C711" s="2"/>
       <c r="F711" s="2"/>
       <c r="I711" s="15"/>
     </row>
-    <row r="712" spans="1:9">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
       <c r="C712" s="2"/>
       <c r="F712" s="2"/>
       <c r="I712" s="15"/>
     </row>
-    <row r="713" spans="1:9">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A713" s="2"/>
       <c r="C713" s="2"/>
       <c r="F713" s="2"/>
       <c r="I713" s="15"/>
     </row>
-    <row r="714" spans="1:9">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
       <c r="C714" s="2"/>
       <c r="F714" s="2"/>
       <c r="I714" s="15"/>
     </row>
-    <row r="715" spans="1:9">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A715" s="2"/>
       <c r="C715" s="2"/>
       <c r="F715" s="2"/>
       <c r="I715" s="15"/>
     </row>
-    <row r="716" spans="1:9">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
       <c r="C716" s="2"/>
       <c r="F716" s="2"/>
       <c r="I716" s="15"/>
     </row>
-    <row r="717" spans="1:9">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A717" s="2"/>
       <c r="C717" s="2"/>
       <c r="F717" s="2"/>
       <c r="I717" s="15"/>
     </row>
-    <row r="718" spans="1:9">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
       <c r="C718" s="2"/>
       <c r="F718" s="2"/>
       <c r="I718" s="15"/>
     </row>
-    <row r="719" spans="1:9">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A719" s="2"/>
       <c r="C719" s="2"/>
       <c r="F719" s="2"/>
       <c r="I719" s="15"/>
     </row>
-    <row r="720" spans="1:9">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
       <c r="C720" s="2"/>
       <c r="F720" s="2"/>
       <c r="I720" s="15"/>
     </row>
-    <row r="721" spans="1:9">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A721" s="2"/>
       <c r="C721" s="2"/>
       <c r="F721" s="2"/>
       <c r="I721" s="15"/>
     </row>
-    <row r="722" spans="1:9">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A722" s="2"/>
       <c r="C722" s="2"/>
       <c r="F722" s="2"/>
       <c r="I722" s="15"/>
     </row>
-    <row r="723" spans="1:9">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A723" s="2"/>
       <c r="C723" s="2"/>
       <c r="F723" s="2"/>
       <c r="I723" s="15"/>
     </row>
-    <row r="724" spans="1:9">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
       <c r="C724" s="2"/>
       <c r="F724" s="2"/>
       <c r="I724" s="15"/>
     </row>
-    <row r="725" spans="1:9">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A725" s="2"/>
       <c r="C725" s="2"/>
       <c r="F725" s="2"/>
       <c r="I725" s="15"/>
     </row>
-    <row r="726" spans="1:9">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
       <c r="C726" s="2"/>
       <c r="F726" s="2"/>
       <c r="I726" s="15"/>
     </row>
-    <row r="727" spans="1:9">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A727" s="2"/>
       <c r="C727" s="2"/>
       <c r="F727" s="2"/>
       <c r="I727" s="15"/>
     </row>
-    <row r="728" spans="1:9">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
       <c r="C728" s="2"/>
       <c r="F728" s="2"/>
       <c r="I728" s="15"/>
     </row>
-    <row r="729" spans="1:9">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A729" s="2"/>
       <c r="C729" s="2"/>
       <c r="F729" s="2"/>
       <c r="I729" s="15"/>
     </row>
-    <row r="730" spans="1:9">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
       <c r="C730" s="2"/>
       <c r="F730" s="2"/>
       <c r="I730" s="15"/>
     </row>
-    <row r="731" spans="1:9">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A731" s="2"/>
       <c r="C731" s="2"/>
       <c r="F731" s="2"/>
       <c r="I731" s="15"/>
     </row>
-    <row r="732" spans="1:9">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
       <c r="C732" s="2"/>
       <c r="F732" s="2"/>
       <c r="I732" s="15"/>
     </row>
-    <row r="733" spans="1:9">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A733" s="2"/>
       <c r="C733" s="2"/>
       <c r="F733" s="2"/>
       <c r="I733" s="15"/>
     </row>
-    <row r="734" spans="1:9">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A734" s="2"/>
       <c r="C734" s="2"/>
       <c r="F734" s="2"/>
       <c r="I734" s="15"/>
     </row>
-    <row r="735" spans="1:9">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A735" s="2"/>
       <c r="C735" s="2"/>
       <c r="F735" s="2"/>
       <c r="I735" s="15"/>
     </row>
-    <row r="736" spans="1:9">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A736" s="2"/>
       <c r="C736" s="2"/>
       <c r="F736" s="2"/>
       <c r="I736" s="15"/>
     </row>
-    <row r="737" spans="1:9">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A737" s="2"/>
       <c r="C737" s="2"/>
       <c r="F737" s="2"/>
       <c r="I737" s="15"/>
     </row>
-    <row r="738" spans="1:9">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A738" s="2"/>
       <c r="C738" s="2"/>
       <c r="F738" s="2"/>
       <c r="I738" s="15"/>
     </row>
-    <row r="739" spans="1:9">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A739" s="2"/>
       <c r="C739" s="2"/>
       <c r="F739" s="2"/>
       <c r="I739" s="15"/>
     </row>
-    <row r="740" spans="1:9">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A740" s="2"/>
       <c r="C740" s="2"/>
       <c r="F740" s="2"/>
       <c r="I740" s="15"/>
     </row>
-    <row r="741" spans="1:9">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A741" s="2"/>
       <c r="C741" s="2"/>
       <c r="F741" s="2"/>
       <c r="I741" s="15"/>
     </row>
-    <row r="742" spans="1:9">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A742" s="2"/>
       <c r="C742" s="2"/>
       <c r="F742" s="2"/>
       <c r="I742" s="15"/>
     </row>
-    <row r="743" spans="1:9">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A743" s="2"/>
       <c r="C743" s="2"/>
       <c r="F743" s="2"/>
       <c r="I743" s="15"/>
     </row>
-    <row r="744" spans="1:9">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A744" s="2"/>
       <c r="C744" s="2"/>
       <c r="F744" s="2"/>
       <c r="I744" s="15"/>
     </row>
-    <row r="745" spans="1:9">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A745" s="2"/>
       <c r="C745" s="2"/>
       <c r="F745" s="2"/>
       <c r="I745" s="15"/>
     </row>
-    <row r="746" spans="1:9">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A746" s="2"/>
       <c r="C746" s="2"/>
       <c r="F746" s="2"/>
       <c r="I746" s="15"/>
     </row>
-    <row r="747" spans="1:9">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A747" s="2"/>
       <c r="C747" s="2"/>
       <c r="F747" s="2"/>
       <c r="I747" s="15"/>
     </row>
-    <row r="748" spans="1:9">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A748" s="2"/>
       <c r="C748" s="2"/>
       <c r="F748" s="2"/>
       <c r="I748" s="15"/>
     </row>
-    <row r="749" spans="1:9">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A749" s="2"/>
       <c r="C749" s="2"/>
       <c r="F749" s="2"/>
       <c r="I749" s="15"/>
     </row>
-    <row r="750" spans="1:9">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A750" s="2"/>
       <c r="C750" s="2"/>
       <c r="F750" s="2"/>
       <c r="I750" s="15"/>
     </row>
-    <row r="751" spans="1:9">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A751" s="2"/>
       <c r="C751" s="2"/>
       <c r="F751" s="2"/>
       <c r="I751" s="15"/>
     </row>
-    <row r="752" spans="1:9">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A752" s="2"/>
       <c r="C752" s="2"/>
       <c r="F752" s="2"/>
       <c r="I752" s="15"/>
     </row>
-    <row r="753" spans="1:9">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A753" s="2"/>
       <c r="C753" s="2"/>
       <c r="F753" s="2"/>
       <c r="I753" s="15"/>
     </row>
-    <row r="754" spans="1:9">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A754" s="2"/>
       <c r="C754" s="2"/>
       <c r="F754" s="2"/>
       <c r="I754" s="15"/>
     </row>
-    <row r="755" spans="1:9">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A755" s="2"/>
       <c r="C755" s="2"/>
       <c r="F755" s="2"/>
       <c r="I755" s="15"/>
     </row>
-    <row r="756" spans="1:9">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A756" s="2"/>
       <c r="C756" s="2"/>
       <c r="F756" s="2"/>
       <c r="I756" s="15"/>
     </row>
-    <row r="757" spans="1:9">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A757" s="2"/>
       <c r="C757" s="2"/>
       <c r="F757" s="2"/>
       <c r="I757" s="15"/>
     </row>
-    <row r="758" spans="1:9">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A758" s="2"/>
       <c r="C758" s="2"/>
       <c r="F758" s="2"/>
       <c r="I758" s="15"/>
     </row>
-    <row r="759" spans="1:9">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A759" s="2"/>
       <c r="C759" s="2"/>
       <c r="F759" s="2"/>
       <c r="I759" s="15"/>
     </row>
-    <row r="760" spans="1:9">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A760" s="2"/>
       <c r="C760" s="2"/>
       <c r="F760" s="2"/>
       <c r="I760" s="15"/>
     </row>
-    <row r="761" spans="1:9">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A761" s="2"/>
       <c r="C761" s="2"/>
       <c r="F761" s="2"/>
       <c r="I761" s="15"/>
     </row>
-    <row r="762" spans="1:9">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A762" s="2"/>
       <c r="C762" s="2"/>
       <c r="F762" s="2"/>
       <c r="I762" s="15"/>
     </row>
-    <row r="763" spans="1:9">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A763" s="2"/>
       <c r="C763" s="2"/>
       <c r="F763" s="2"/>
       <c r="I763" s="15"/>
     </row>
-    <row r="764" spans="1:9">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A764" s="2"/>
       <c r="C764" s="2"/>
       <c r="F764" s="2"/>
       <c r="I764" s="15"/>
     </row>
-    <row r="765" spans="1:9">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A765" s="2"/>
       <c r="C765" s="2"/>
       <c r="F765" s="2"/>
       <c r="I765" s="15"/>
     </row>
-    <row r="766" spans="1:9">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A766" s="2"/>
       <c r="C766" s="2"/>
       <c r="F766" s="2"/>
       <c r="I766" s="15"/>
     </row>
-    <row r="767" spans="1:9">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A767" s="2"/>
       <c r="C767" s="2"/>
       <c r="F767" s="2"/>
       <c r="I767" s="15"/>
     </row>
-    <row r="768" spans="1:9">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
       <c r="C768" s="2"/>
       <c r="F768" s="2"/>
       <c r="I768" s="15"/>
     </row>
-    <row r="769" spans="1:9">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" s="2"/>
       <c r="C769" s="2"/>
       <c r="F769" s="2"/>
       <c r="I769" s="15"/>
     </row>
-    <row r="770" spans="1:9">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
       <c r="C770" s="2"/>
       <c r="F770" s="2"/>
       <c r="I770" s="15"/>
     </row>
-    <row r="771" spans="1:9">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" s="2"/>
       <c r="C771" s="2"/>
       <c r="F771" s="2"/>
       <c r="I771" s="15"/>
     </row>
-    <row r="772" spans="1:9">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
       <c r="C772" s="2"/>
       <c r="F772" s="2"/>
       <c r="I772" s="15"/>
     </row>
-    <row r="773" spans="1:9">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" s="2"/>
       <c r="C773" s="2"/>
       <c r="F773" s="2"/>
       <c r="I773" s="15"/>
     </row>
-    <row r="774" spans="1:9">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
       <c r="C774" s="2"/>
       <c r="F774" s="2"/>
       <c r="I774" s="15"/>
     </row>
-    <row r="775" spans="1:9">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775" s="2"/>
       <c r="C775" s="2"/>
       <c r="F775" s="2"/>
       <c r="I775" s="15"/>
     </row>
-    <row r="776" spans="1:9">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
       <c r="C776" s="2"/>
       <c r="F776" s="2"/>
       <c r="I776" s="15"/>
     </row>
-    <row r="777" spans="1:9">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777" s="2"/>
       <c r="C777" s="2"/>
       <c r="F777" s="2"/>
       <c r="I777" s="15"/>
     </row>
-    <row r="778" spans="1:9">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
       <c r="C778" s="2"/>
       <c r="F778" s="2"/>
       <c r="I778" s="15"/>
     </row>
-    <row r="779" spans="1:9">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" s="2"/>
       <c r="C779" s="2"/>
       <c r="F779" s="2"/>
       <c r="I779" s="15"/>
     </row>
-    <row r="780" spans="1:9">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
       <c r="C780" s="2"/>
       <c r="F780" s="2"/>
       <c r="I780" s="15"/>
     </row>
-    <row r="781" spans="1:9">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781" s="2"/>
       <c r="C781" s="2"/>
       <c r="F781" s="2"/>
       <c r="I781" s="15"/>
     </row>
-    <row r="782" spans="1:9">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
       <c r="C782" s="2"/>
       <c r="F782" s="2"/>
       <c r="I782" s="15"/>
     </row>
-    <row r="783" spans="1:9">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783" s="2"/>
       <c r="C783" s="2"/>
       <c r="F783" s="2"/>
       <c r="I783" s="15"/>
     </row>
-    <row r="784" spans="1:9">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
       <c r="C784" s="2"/>
       <c r="F784" s="2"/>
       <c r="I784" s="15"/>
     </row>
-    <row r="785" spans="1:9">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785" s="2"/>
       <c r="C785" s="2"/>
       <c r="F785" s="2"/>
       <c r="I785" s="15"/>
     </row>
-    <row r="786" spans="1:9">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
       <c r="C786" s="2"/>
       <c r="F786" s="2"/>
       <c r="I786" s="15"/>
     </row>
-    <row r="787" spans="1:9">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787" s="2"/>
       <c r="C787" s="2"/>
       <c r="F787" s="2"/>
       <c r="I787" s="15"/>
     </row>
-    <row r="788" spans="1:9">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
       <c r="C788" s="2"/>
       <c r="F788" s="2"/>
       <c r="I788" s="15"/>
     </row>
-    <row r="789" spans="1:9">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" s="2"/>
       <c r="C789" s="2"/>
       <c r="F789" s="2"/>
       <c r="I789" s="15"/>
     </row>
-    <row r="790" spans="1:9">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
       <c r="C790" s="2"/>
       <c r="F790" s="2"/>
       <c r="I790" s="15"/>
     </row>
-    <row r="791" spans="1:9">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" s="2"/>
       <c r="C791" s="2"/>
       <c r="F791" s="2"/>
       <c r="I791" s="15"/>
     </row>
-    <row r="792" spans="1:9">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
       <c r="C792" s="2"/>
       <c r="F792" s="2"/>
       <c r="I792" s="15"/>
     </row>
-    <row r="793" spans="1:9">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793" s="2"/>
       <c r="C793" s="2"/>
       <c r="F793" s="2"/>
       <c r="I793" s="15"/>
     </row>
-    <row r="794" spans="1:9">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
       <c r="C794" s="2"/>
       <c r="F794" s="2"/>
       <c r="I794" s="15"/>
     </row>
-    <row r="795" spans="1:9">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795" s="2"/>
       <c r="C795" s="2"/>
       <c r="F795" s="2"/>
       <c r="I795" s="15"/>
     </row>
-    <row r="796" spans="1:9">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
       <c r="C796" s="2"/>
       <c r="F796" s="2"/>
       <c r="I796" s="15"/>
     </row>
-    <row r="797" spans="1:9">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797" s="2"/>
       <c r="C797" s="2"/>
       <c r="F797" s="2"/>
       <c r="I797" s="15"/>
     </row>
-    <row r="798" spans="1:9">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
       <c r="C798" s="2"/>
       <c r="F798" s="2"/>
       <c r="I798" s="15"/>
     </row>
-    <row r="799" spans="1:9">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799" s="2"/>
       <c r="C799" s="2"/>
       <c r="F799" s="2"/>
       <c r="I799" s="15"/>
     </row>
-    <row r="800" spans="1:9">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
       <c r="C800" s="2"/>
       <c r="F800" s="2"/>
       <c r="I800" s="15"/>
     </row>
-    <row r="801" spans="1:9">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
       <c r="C801" s="2"/>
       <c r="F801" s="2"/>
       <c r="I801" s="15"/>
     </row>
-    <row r="802" spans="1:9">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A802" s="2"/>
       <c r="C802" s="2"/>
       <c r="F802" s="2"/>
       <c r="I802" s="15"/>
     </row>
-    <row r="803" spans="1:9">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A803" s="2"/>
       <c r="C803" s="2"/>
       <c r="F803" s="2"/>
       <c r="I803" s="15"/>
     </row>
-    <row r="804" spans="1:9">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A804" s="2"/>
       <c r="C804" s="2"/>
       <c r="F804" s="2"/>
       <c r="I804" s="15"/>
     </row>
-    <row r="805" spans="1:9">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A805" s="2"/>
       <c r="C805" s="2"/>
       <c r="F805" s="2"/>
       <c r="I805" s="15"/>
     </row>
-    <row r="806" spans="1:9">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A806" s="2"/>
       <c r="C806" s="2"/>
       <c r="F806" s="2"/>
       <c r="I806" s="15"/>
     </row>
-    <row r="807" spans="1:9">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A807" s="2"/>
       <c r="C807" s="2"/>
       <c r="F807" s="2"/>
       <c r="I807" s="15"/>
     </row>
-    <row r="808" spans="1:9">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A808" s="2"/>
       <c r="C808" s="2"/>
       <c r="F808" s="2"/>
       <c r="I808" s="15"/>
     </row>
-    <row r="809" spans="1:9">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A809" s="2"/>
       <c r="C809" s="2"/>
       <c r="F809" s="2"/>
       <c r="I809" s="15"/>
     </row>
-    <row r="810" spans="1:9">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A810" s="2"/>
       <c r="C810" s="2"/>
       <c r="F810" s="2"/>
       <c r="I810" s="15"/>
     </row>
-    <row r="811" spans="1:9">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A811" s="2"/>
       <c r="C811" s="2"/>
       <c r="F811" s="2"/>
       <c r="I811" s="15"/>
     </row>
-    <row r="812" spans="1:9">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A812" s="2"/>
       <c r="C812" s="2"/>
       <c r="F812" s="2"/>
       <c r="I812" s="15"/>
     </row>
-    <row r="813" spans="1:9">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A813" s="2"/>
       <c r="C813" s="2"/>
       <c r="F813" s="2"/>
       <c r="I813" s="15"/>
     </row>
-    <row r="814" spans="1:9">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A814" s="2"/>
       <c r="C814" s="2"/>
       <c r="F814" s="2"/>
       <c r="I814" s="15"/>
     </row>
-    <row r="815" spans="1:9">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A815" s="2"/>
       <c r="C815" s="2"/>
       <c r="F815" s="2"/>
       <c r="I815" s="15"/>
     </row>
-    <row r="816" spans="1:9">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A816" s="2"/>
       <c r="C816" s="2"/>
       <c r="F816" s="2"/>
       <c r="I816" s="15"/>
     </row>
-    <row r="817" spans="1:9">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A817" s="2"/>
       <c r="C817" s="2"/>
       <c r="F817" s="2"/>
       <c r="I817" s="15"/>
     </row>
-    <row r="818" spans="1:9">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A818" s="2"/>
       <c r="C818" s="2"/>
       <c r="F818" s="2"/>
       <c r="I818" s="15"/>
     </row>
-    <row r="819" spans="1:9">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A819" s="2"/>
       <c r="C819" s="2"/>
       <c r="F819" s="2"/>
       <c r="I819" s="15"/>
     </row>
-    <row r="820" spans="1:9">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A820" s="2"/>
       <c r="C820" s="2"/>
       <c r="F820" s="2"/>
       <c r="I820" s="15"/>
     </row>
-    <row r="821" spans="1:9">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A821" s="2"/>
       <c r="C821" s="2"/>
       <c r="F821" s="2"/>
       <c r="I821" s="15"/>
     </row>
-    <row r="822" spans="1:9">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A822" s="2"/>
       <c r="C822" s="2"/>
       <c r="F822" s="2"/>
       <c r="I822" s="15"/>
     </row>
-    <row r="823" spans="1:9">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A823" s="2"/>
       <c r="C823" s="2"/>
       <c r="F823" s="2"/>
       <c r="I823" s="15"/>
     </row>
-    <row r="824" spans="1:9">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A824" s="2"/>
       <c r="C824" s="2"/>
       <c r="F824" s="2"/>
       <c r="I824" s="15"/>
     </row>
-    <row r="825" spans="1:9">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A825" s="2"/>
       <c r="C825" s="2"/>
       <c r="F825" s="2"/>
       <c r="I825" s="15"/>
     </row>
-    <row r="826" spans="1:9">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A826" s="2"/>
       <c r="C826" s="2"/>
       <c r="F826" s="2"/>
       <c r="I826" s="15"/>
     </row>
-    <row r="827" spans="1:9">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A827" s="2"/>
       <c r="C827" s="2"/>
       <c r="F827" s="2"/>
       <c r="I827" s="15"/>
     </row>
-    <row r="828" spans="1:9">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A828" s="2"/>
       <c r="C828" s="2"/>
       <c r="F828" s="2"/>
       <c r="I828" s="15"/>
     </row>
-    <row r="829" spans="1:9">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A829" s="2"/>
       <c r="C829" s="2"/>
       <c r="F829" s="2"/>
       <c r="I829" s="15"/>
     </row>
-    <row r="830" spans="1:9">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A830" s="2"/>
       <c r="C830" s="2"/>
       <c r="F830" s="2"/>
       <c r="I830" s="15"/>
     </row>
-    <row r="831" spans="1:9">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A831" s="2"/>
       <c r="C831" s="2"/>
       <c r="F831" s="2"/>
       <c r="I831" s="15"/>
     </row>
-    <row r="832" spans="1:9">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A832" s="2"/>
       <c r="C832" s="2"/>
       <c r="F832" s="2"/>
       <c r="I832" s="15"/>
     </row>
-    <row r="833" spans="1:9">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A833" s="2"/>
       <c r="C833" s="2"/>
       <c r="F833" s="2"/>
       <c r="I833" s="15"/>
     </row>
-    <row r="834" spans="1:9">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A834" s="2"/>
       <c r="C834" s="2"/>
       <c r="F834" s="2"/>
       <c r="I834" s="15"/>
     </row>
-    <row r="835" spans="1:9">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A835" s="2"/>
       <c r="C835" s="2"/>
       <c r="F835" s="2"/>
       <c r="I835" s="15"/>
     </row>
-    <row r="836" spans="1:9">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A836" s="2"/>
       <c r="C836" s="2"/>
       <c r="F836" s="2"/>
       <c r="I836" s="15"/>
     </row>
-    <row r="837" spans="1:9">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A837" s="2"/>
       <c r="C837" s="2"/>
       <c r="F837" s="2"/>
       <c r="I837" s="15"/>
     </row>
-    <row r="838" spans="1:9">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A838" s="2"/>
       <c r="C838" s="2"/>
       <c r="F838" s="2"/>
       <c r="I838" s="15"/>
     </row>
-    <row r="839" spans="1:9">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A839" s="2"/>
       <c r="C839" s="2"/>
       <c r="F839" s="2"/>
       <c r="I839" s="15"/>
     </row>
-    <row r="840" spans="1:9">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A840" s="2"/>
       <c r="C840" s="2"/>
       <c r="F840" s="2"/>
       <c r="I840" s="15"/>
     </row>
-    <row r="841" spans="1:9">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A841" s="2"/>
       <c r="C841" s="2"/>
       <c r="F841" s="2"/>
       <c r="I841" s="15"/>
     </row>
-    <row r="842" spans="1:9">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A842" s="2"/>
       <c r="C842" s="2"/>
       <c r="F842" s="2"/>
       <c r="I842" s="15"/>
     </row>
-    <row r="843" spans="1:9">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A843" s="2"/>
       <c r="C843" s="2"/>
       <c r="F843" s="2"/>
       <c r="I843" s="15"/>
     </row>
-    <row r="844" spans="1:9">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A844" s="2"/>
       <c r="C844" s="2"/>
       <c r="F844" s="2"/>
       <c r="I844" s="15"/>
     </row>
-    <row r="845" spans="1:9">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A845" s="2"/>
       <c r="C845" s="2"/>
       <c r="F845" s="2"/>
       <c r="I845" s="15"/>
     </row>
-    <row r="846" spans="1:9">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A846" s="2"/>
       <c r="C846" s="2"/>
       <c r="F846" s="2"/>
       <c r="I846" s="15"/>
     </row>
-    <row r="847" spans="1:9">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A847" s="2"/>
       <c r="C847" s="2"/>
       <c r="F847" s="2"/>
       <c r="I847" s="15"/>
     </row>
-    <row r="848" spans="1:9">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A848" s="2"/>
       <c r="C848" s="2"/>
       <c r="F848" s="2"/>
       <c r="I848" s="15"/>
     </row>
-    <row r="849" spans="1:9">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A849" s="2"/>
       <c r="C849" s="2"/>
       <c r="F849" s="2"/>
       <c r="I849" s="15"/>
     </row>
-    <row r="850" spans="1:9">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A850" s="2"/>
       <c r="C850" s="2"/>
       <c r="F850" s="2"/>
       <c r="I850" s="15"/>
     </row>
-    <row r="851" spans="1:9">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A851" s="2"/>
       <c r="C851" s="2"/>
       <c r="F851" s="2"/>
       <c r="I851" s="15"/>
     </row>
-    <row r="852" spans="1:9">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A852" s="2"/>
       <c r="C852" s="2"/>
       <c r="F852" s="2"/>
       <c r="I852" s="15"/>
     </row>
-    <row r="853" spans="1:9">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A853" s="2"/>
       <c r="C853" s="2"/>
       <c r="F853" s="2"/>
       <c r="I853" s="15"/>
     </row>
-    <row r="854" spans="1:9">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A854" s="2"/>
       <c r="C854" s="2"/>
       <c r="F854" s="2"/>
       <c r="I854" s="15"/>
     </row>
-    <row r="855" spans="1:9">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A855" s="2"/>
       <c r="C855" s="2"/>
       <c r="F855" s="2"/>
       <c r="I855" s="15"/>
     </row>
-    <row r="856" spans="1:9">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A856" s="2"/>
       <c r="C856" s="2"/>
       <c r="F856" s="2"/>
       <c r="I856" s="15"/>
     </row>
-    <row r="857" spans="1:9">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A857" s="2"/>
       <c r="C857" s="2"/>
       <c r="F857" s="2"/>
       <c r="I857" s="15"/>
     </row>
-    <row r="858" spans="1:9">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A858" s="2"/>
       <c r="C858" s="2"/>
       <c r="F858" s="2"/>
       <c r="I858" s="15"/>
     </row>
-    <row r="859" spans="1:9">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A859" s="2"/>
       <c r="C859" s="2"/>
       <c r="F859" s="2"/>
       <c r="I859" s="15"/>
     </row>
-    <row r="860" spans="1:9">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A860" s="2"/>
       <c r="C860" s="2"/>
       <c r="F860" s="2"/>
       <c r="I860" s="15"/>
     </row>
-    <row r="861" spans="1:9">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A861" s="2"/>
       <c r="C861" s="2"/>
       <c r="F861" s="2"/>
       <c r="I861" s="15"/>
     </row>
-    <row r="862" spans="1:9">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A862" s="2"/>
       <c r="C862" s="2"/>
       <c r="F862" s="2"/>
       <c r="I862" s="15"/>
     </row>
-    <row r="863" spans="1:9">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A863" s="2"/>
       <c r="C863" s="2"/>
       <c r="F863" s="2"/>
       <c r="I863" s="15"/>
     </row>
-    <row r="864" spans="1:9">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A864" s="2"/>
       <c r="C864" s="2"/>
       <c r="F864" s="2"/>
       <c r="I864" s="15"/>
     </row>
-    <row r="865" spans="1:9">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A865" s="2"/>
       <c r="C865" s="2"/>
       <c r="F865" s="2"/>
       <c r="I865" s="15"/>
     </row>
-    <row r="866" spans="1:9">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A866" s="2"/>
       <c r="C866" s="2"/>
       <c r="F866" s="2"/>
       <c r="I866" s="15"/>
     </row>
-    <row r="867" spans="1:9">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A867" s="2"/>
       <c r="C867" s="2"/>
       <c r="F867" s="2"/>
       <c r="I867" s="15"/>
     </row>
-    <row r="868" spans="1:9">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A868" s="2"/>
       <c r="C868" s="2"/>
       <c r="F868" s="2"/>
       <c r="I868" s="15"/>
     </row>
-    <row r="869" spans="1:9">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A869" s="2"/>
       <c r="C869" s="2"/>
       <c r="F869" s="2"/>
       <c r="I869" s="15"/>
     </row>
-    <row r="870" spans="1:9">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A870" s="2"/>
       <c r="C870" s="2"/>
       <c r="F870" s="2"/>
       <c r="I870" s="15"/>
     </row>
-    <row r="871" spans="1:9">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A871" s="2"/>
       <c r="C871" s="2"/>
       <c r="F871" s="2"/>
       <c r="I871" s="15"/>
     </row>
-    <row r="872" spans="1:9">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A872" s="2"/>
       <c r="C872" s="2"/>
       <c r="F872" s="2"/>
       <c r="I872" s="15"/>
     </row>
-    <row r="873" spans="1:9">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A873" s="2"/>
       <c r="C873" s="2"/>
       <c r="F873" s="2"/>
       <c r="I873" s="15"/>
     </row>
-    <row r="874" spans="1:9">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A874" s="2"/>
       <c r="C874" s="2"/>
       <c r="F874" s="2"/>
       <c r="I874" s="15"/>
     </row>
-    <row r="875" spans="1:9">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A875" s="2"/>
       <c r="C875" s="2"/>
       <c r="F875" s="2"/>
       <c r="I875" s="15"/>
     </row>
-    <row r="876" spans="1:9">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A876" s="2"/>
       <c r="C876" s="2"/>
       <c r="F876" s="2"/>
       <c r="I876" s="15"/>
     </row>
-    <row r="877" spans="1:9">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A877" s="2"/>
       <c r="C877" s="2"/>
       <c r="F877" s="2"/>
       <c r="I877" s="15"/>
     </row>
-    <row r="878" spans="1:9">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A878" s="2"/>
       <c r="C878" s="2"/>
       <c r="F878" s="2"/>
       <c r="I878" s="15"/>
     </row>
-    <row r="879" spans="1:9">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A879" s="2"/>
       <c r="C879" s="2"/>
       <c r="F879" s="2"/>
       <c r="I879" s="15"/>
     </row>
-    <row r="880" spans="1:9">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A880" s="2"/>
       <c r="C880" s="2"/>
       <c r="F880" s="2"/>
       <c r="I880" s="15"/>
     </row>
-    <row r="881" spans="1:9">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A881" s="2"/>
       <c r="C881" s="2"/>
       <c r="F881" s="2"/>
       <c r="I881" s="15"/>
     </row>
-    <row r="882" spans="1:9">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A882" s="2"/>
       <c r="C882" s="2"/>
       <c r="F882" s="2"/>
       <c r="I882" s="15"/>
     </row>
-    <row r="883" spans="1:9">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A883" s="2"/>
       <c r="C883" s="2"/>
       <c r="F883" s="2"/>
       <c r="I883" s="15"/>
     </row>
-    <row r="884" spans="1:9">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A884" s="2"/>
       <c r="C884" s="2"/>
       <c r="F884" s="2"/>
       <c r="I884" s="15"/>
     </row>
-    <row r="885" spans="1:9">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A885" s="2"/>
       <c r="C885" s="2"/>
       <c r="F885" s="2"/>
       <c r="I885" s="15"/>
     </row>
-    <row r="886" spans="1:9">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A886" s="2"/>
       <c r="C886" s="2"/>
       <c r="F886" s="2"/>
       <c r="I886" s="15"/>
     </row>
-    <row r="887" spans="1:9">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A887" s="2"/>
       <c r="C887" s="2"/>
       <c r="F887" s="2"/>
       <c r="I887" s="15"/>
     </row>
-    <row r="888" spans="1:9">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A888" s="2"/>
       <c r="C888" s="2"/>
       <c r="F888" s="2"/>
       <c r="I888" s="15"/>
     </row>
-    <row r="889" spans="1:9">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A889" s="2"/>
       <c r="C889" s="2"/>
       <c r="F889" s="2"/>
       <c r="I889" s="15"/>
     </row>
-    <row r="890" spans="1:9">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A890" s="2"/>
       <c r="C890" s="2"/>
       <c r="F890" s="2"/>
       <c r="I890" s="15"/>
     </row>
-    <row r="891" spans="1:9">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A891" s="2"/>
       <c r="C891" s="2"/>
       <c r="F891" s="2"/>
       <c r="I891" s="15"/>
     </row>
-    <row r="892" spans="1:9">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A892" s="2"/>
       <c r="C892" s="2"/>
       <c r="F892" s="2"/>
       <c r="I892" s="15"/>
     </row>
-    <row r="893" spans="1:9">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A893" s="2"/>
       <c r="C893" s="2"/>
       <c r="F893" s="2"/>
       <c r="I893" s="15"/>
     </row>
-    <row r="894" spans="1:9">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A894" s="2"/>
       <c r="C894" s="2"/>
       <c r="F894" s="2"/>
       <c r="I894" s="15"/>
     </row>
-    <row r="895" spans="1:9">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A895" s="2"/>
       <c r="C895" s="2"/>
       <c r="F895" s="2"/>
       <c r="I895" s="15"/>
     </row>
-    <row r="896" spans="1:9">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A896" s="2"/>
       <c r="C896" s="2"/>
       <c r="F896" s="2"/>
       <c r="I896" s="15"/>
     </row>
-    <row r="897" spans="1:9">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A897" s="2"/>
       <c r="C897" s="2"/>
       <c r="F897" s="2"/>
       <c r="I897" s="15"/>
     </row>
-    <row r="898" spans="1:9">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A898" s="2"/>
       <c r="C898" s="2"/>
       <c r="F898" s="2"/>
       <c r="I898" s="15"/>
     </row>
-    <row r="899" spans="1:9">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A899" s="2"/>
       <c r="C899" s="2"/>
       <c r="F899" s="2"/>
       <c r="I899" s="15"/>
     </row>
-    <row r="900" spans="1:9">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A900" s="2"/>
       <c r="C900" s="2"/>
       <c r="F900" s="2"/>
       <c r="I900" s="15"/>
     </row>
-    <row r="901" spans="1:9">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A901" s="2"/>
       <c r="C901" s="2"/>
       <c r="F901" s="2"/>
       <c r="I901" s="15"/>
     </row>
-    <row r="902" spans="1:9">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A902" s="2"/>
       <c r="C902" s="2"/>
       <c r="F902" s="2"/>
       <c r="I902" s="15"/>
     </row>
-    <row r="903" spans="1:9">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A903" s="2"/>
       <c r="C903" s="2"/>
       <c r="F903" s="2"/>
       <c r="I903" s="15"/>
     </row>
-    <row r="904" spans="1:9">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A904" s="2"/>
       <c r="C904" s="2"/>
       <c r="F904" s="2"/>
       <c r="I904" s="15"/>
     </row>
-    <row r="905" spans="1:9">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A905" s="2"/>
       <c r="C905" s="2"/>
       <c r="F905" s="2"/>
       <c r="I905" s="15"/>
     </row>
-    <row r="906" spans="1:9">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A906" s="2"/>
       <c r="C906" s="2"/>
       <c r="F906" s="2"/>
       <c r="I906" s="15"/>
     </row>
-    <row r="907" spans="1:9">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A907" s="2"/>
       <c r="C907" s="2"/>
       <c r="F907" s="2"/>
       <c r="I907" s="15"/>
     </row>
-    <row r="908" spans="1:9">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A908" s="2"/>
       <c r="C908" s="2"/>
       <c r="F908" s="2"/>
       <c r="I908" s="15"/>
     </row>
-    <row r="909" spans="1:9">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A909" s="2"/>
       <c r="C909" s="2"/>
       <c r="F909" s="2"/>
       <c r="I909" s="15"/>
     </row>
-    <row r="910" spans="1:9">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A910" s="2"/>
       <c r="C910" s="2"/>
       <c r="F910" s="2"/>
       <c r="I910" s="15"/>
     </row>
-    <row r="911" spans="1:9">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A911" s="2"/>
       <c r="C911" s="2"/>
       <c r="F911" s="2"/>
       <c r="I911" s="15"/>
     </row>
-    <row r="912" spans="1:9">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A912" s="2"/>
       <c r="C912" s="2"/>
       <c r="F912" s="2"/>
       <c r="I912" s="15"/>
     </row>
-    <row r="913" spans="1:9">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A913" s="2"/>
       <c r="C913" s="2"/>
       <c r="F913" s="2"/>
       <c r="I913" s="15"/>
     </row>
-    <row r="914" spans="1:9">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A914" s="2"/>
       <c r="C914" s="2"/>
       <c r="F914" s="2"/>
       <c r="I914" s="15"/>
     </row>
-    <row r="915" spans="1:9">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A915" s="2"/>
       <c r="C915" s="2"/>
       <c r="F915" s="2"/>
       <c r="I915" s="15"/>
     </row>
-    <row r="916" spans="1:9">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A916" s="2"/>
       <c r="C916" s="2"/>
       <c r="F916" s="2"/>
       <c r="I916" s="15"/>
     </row>
-    <row r="917" spans="1:9">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A917" s="2"/>
       <c r="C917" s="2"/>
       <c r="F917" s="2"/>
       <c r="I917" s="15"/>
     </row>
-    <row r="918" spans="1:9">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A918" s="2"/>
       <c r="C918" s="2"/>
       <c r="F918" s="2"/>
       <c r="I918" s="15"/>
     </row>
-    <row r="919" spans="1:9">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A919" s="2"/>
       <c r="C919" s="2"/>
       <c r="F919" s="2"/>
       <c r="I919" s="15"/>
     </row>
-    <row r="920" spans="1:9">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A920" s="2"/>
       <c r="C920" s="2"/>
       <c r="F920" s="2"/>
       <c r="I920" s="15"/>
     </row>
-    <row r="921" spans="1:9">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A921" s="2"/>
       <c r="C921" s="2"/>
       <c r="F921" s="2"/>
       <c r="I921" s="15"/>
     </row>
-    <row r="922" spans="1:9">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A922" s="2"/>
       <c r="C922" s="2"/>
       <c r="F922" s="2"/>
       <c r="I922" s="15"/>
     </row>
-    <row r="923" spans="1:9">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A923" s="2"/>
       <c r="C923" s="2"/>
       <c r="F923" s="2"/>
       <c r="I923" s="15"/>
     </row>
-    <row r="924" spans="1:9">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A924" s="2"/>
       <c r="C924" s="2"/>
       <c r="F924" s="2"/>
       <c r="I924" s="15"/>
     </row>
-    <row r="925" spans="1:9">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A925" s="2"/>
       <c r="C925" s="2"/>
       <c r="F925" s="2"/>
       <c r="I925" s="15"/>
     </row>
-    <row r="926" spans="1:9">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A926" s="2"/>
       <c r="C926" s="2"/>
       <c r="F926" s="2"/>
       <c r="I926" s="15"/>
     </row>
-    <row r="927" spans="1:9">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A927" s="2"/>
       <c r="C927" s="2"/>
       <c r="F927" s="2"/>
       <c r="I927" s="15"/>
     </row>
-    <row r="928" spans="1:9">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A928" s="2"/>
       <c r="C928" s="2"/>
       <c r="F928" s="2"/>
       <c r="I928" s="15"/>
     </row>
-    <row r="929" spans="1:9">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A929" s="2"/>
       <c r="C929" s="2"/>
       <c r="F929" s="2"/>
       <c r="I929" s="15"/>
     </row>
-    <row r="930" spans="1:9">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A930" s="2"/>
       <c r="C930" s="2"/>
       <c r="F930" s="2"/>
       <c r="I930" s="15"/>
     </row>
-    <row r="931" spans="1:9">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A931" s="2"/>
       <c r="C931" s="2"/>
       <c r="F931" s="2"/>
       <c r="I931" s="15"/>
     </row>
-    <row r="932" spans="1:9">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A932" s="2"/>
       <c r="C932" s="2"/>
       <c r="F932" s="2"/>
       <c r="I932" s="15"/>
     </row>
-    <row r="933" spans="1:9">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A933" s="2"/>
       <c r="C933" s="2"/>
       <c r="F933" s="2"/>
       <c r="I933" s="15"/>
     </row>
-    <row r="934" spans="1:9">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A934" s="2"/>
       <c r="C934" s="2"/>
       <c r="F934" s="2"/>
       <c r="I934" s="15"/>
     </row>
-    <row r="935" spans="1:9">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A935" s="2"/>
       <c r="C935" s="2"/>
       <c r="F935" s="2"/>
       <c r="I935" s="15"/>
     </row>
-    <row r="936" spans="1:9">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A936" s="2"/>
       <c r="C936" s="2"/>
       <c r="F936" s="2"/>
       <c r="I936" s="15"/>
     </row>
-    <row r="937" spans="1:9">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A937" s="2"/>
       <c r="C937" s="2"/>
       <c r="F937" s="2"/>
       <c r="I937" s="15"/>
     </row>
-    <row r="938" spans="1:9">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A938" s="2"/>
       <c r="C938" s="2"/>
       <c r="F938" s="2"/>
       <c r="I938" s="15"/>
     </row>
-    <row r="939" spans="1:9">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A939" s="2"/>
       <c r="C939" s="2"/>
       <c r="F939" s="2"/>
       <c r="I939" s="15"/>
     </row>
-    <row r="940" spans="1:9">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A940" s="2"/>
       <c r="C940" s="2"/>
       <c r="F940" s="2"/>
       <c r="I940" s="15"/>
     </row>
-    <row r="941" spans="1:9">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A941" s="2"/>
       <c r="C941" s="2"/>
       <c r="F941" s="2"/>
       <c r="I941" s="15"/>
     </row>
-    <row r="942" spans="1:9">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A942" s="2"/>
       <c r="C942" s="2"/>
       <c r="F942" s="2"/>
       <c r="I942" s="15"/>
     </row>
-    <row r="943" spans="1:9">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A943" s="2"/>
       <c r="C943" s="2"/>
       <c r="F943" s="2"/>
       <c r="I943" s="15"/>
     </row>
-    <row r="944" spans="1:9">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A944" s="2"/>
       <c r="C944" s="2"/>
       <c r="F944" s="2"/>
       <c r="I944" s="15"/>
     </row>
-    <row r="945" spans="1:9">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A945" s="2"/>
       <c r="C945" s="2"/>
       <c r="F945" s="2"/>
       <c r="I945" s="15"/>
     </row>
-    <row r="946" spans="1:9">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A946" s="2"/>
       <c r="C946" s="2"/>
       <c r="F946" s="2"/>
       <c r="I946" s="15"/>
     </row>
-    <row r="947" spans="1:9">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A947" s="2"/>
       <c r="C947" s="2"/>
       <c r="F947" s="2"/>
       <c r="I947" s="15"/>
     </row>
-    <row r="948" spans="1:9">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A948" s="2"/>
       <c r="C948" s="2"/>
       <c r="F948" s="2"/>
       <c r="I948" s="15"/>
     </row>
-    <row r="949" spans="1:9">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A949" s="2"/>
       <c r="C949" s="2"/>
       <c r="F949" s="2"/>
       <c r="I949" s="15"/>
     </row>
-    <row r="950" spans="1:9">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A950" s="2"/>
       <c r="C950" s="2"/>
       <c r="F950" s="2"/>
       <c r="I950" s="15"/>
     </row>
-    <row r="951" spans="1:9">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A951" s="2"/>
       <c r="C951" s="2"/>
       <c r="F951" s="2"/>
       <c r="I951" s="15"/>
     </row>
-    <row r="952" spans="1:9">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A952" s="2"/>
       <c r="C952" s="2"/>
       <c r="F952" s="2"/>
       <c r="I952" s="15"/>
     </row>
-    <row r="953" spans="1:9">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A953" s="2"/>
       <c r="C953" s="2"/>
       <c r="F953" s="2"/>
       <c r="I953" s="15"/>
     </row>
-    <row r="954" spans="1:9">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A954" s="2"/>
       <c r="C954" s="2"/>
       <c r="F954" s="2"/>
       <c r="I954" s="15"/>
     </row>
-    <row r="955" spans="1:9">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A955" s="2"/>
       <c r="C955" s="2"/>
       <c r="F955" s="2"/>
       <c r="I955" s="15"/>
     </row>
-    <row r="956" spans="1:9">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A956" s="2"/>
       <c r="C956" s="2"/>
       <c r="F956" s="2"/>
       <c r="I956" s="15"/>
     </row>
-    <row r="957" spans="1:9">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A957" s="2"/>
       <c r="C957" s="2"/>
       <c r="F957" s="2"/>
       <c r="I957" s="15"/>
     </row>
-    <row r="958" spans="1:9">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A958" s="2"/>
       <c r="C958" s="2"/>
       <c r="F958" s="2"/>
       <c r="I958" s="15"/>
     </row>
-    <row r="959" spans="1:9">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A959" s="2"/>
       <c r="C959" s="2"/>
       <c r="F959" s="2"/>
       <c r="I959" s="15"/>
     </row>
-    <row r="960" spans="1:9">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A960" s="2"/>
       <c r="C960" s="2"/>
       <c r="F960" s="2"/>
       <c r="I960" s="15"/>
     </row>
-    <row r="961" spans="1:9">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A961" s="2"/>
       <c r="C961" s="2"/>
       <c r="F961" s="2"/>
       <c r="I961" s="15"/>
     </row>
-    <row r="962" spans="1:9">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A962" s="2"/>
       <c r="C962" s="2"/>
       <c r="F962" s="2"/>
       <c r="I962" s="15"/>
     </row>
-    <row r="963" spans="1:9">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A963" s="2"/>
       <c r="C963" s="2"/>
       <c r="F963" s="2"/>
       <c r="I963" s="15"/>
     </row>
-    <row r="964" spans="1:9">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A964" s="2"/>
       <c r="C964" s="2"/>
       <c r="F964" s="2"/>
       <c r="I964" s="15"/>
     </row>
-    <row r="965" spans="1:9">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A965" s="2"/>
       <c r="C965" s="2"/>
       <c r="F965" s="2"/>
       <c r="I965" s="15"/>
     </row>
-    <row r="966" spans="1:9">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A966" s="2"/>
       <c r="C966" s="2"/>
       <c r="F966" s="2"/>
       <c r="I966" s="15"/>
     </row>
-    <row r="967" spans="1:9">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A967" s="2"/>
       <c r="C967" s="2"/>
       <c r="F967" s="2"/>
       <c r="I967" s="15"/>
     </row>
-    <row r="968" spans="1:9">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A968" s="2"/>
       <c r="C968" s="2"/>
       <c r="F968" s="2"/>
       <c r="I968" s="15"/>
     </row>
-    <row r="969" spans="1:9">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A969" s="2"/>
       <c r="C969" s="2"/>
       <c r="F969" s="2"/>
       <c r="I969" s="15"/>
     </row>
-    <row r="970" spans="1:9">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A970" s="2"/>
       <c r="C970" s="2"/>
       <c r="F970" s="2"/>
       <c r="I970" s="15"/>
     </row>
-    <row r="971" spans="1:9">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A971" s="2"/>
       <c r="C971" s="2"/>
       <c r="F971" s="2"/>
       <c r="I971" s="15"/>
     </row>
-    <row r="972" spans="1:9">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A972" s="2"/>
       <c r="C972" s="2"/>
       <c r="F972" s="2"/>
       <c r="I972" s="15"/>
     </row>
-    <row r="973" spans="1:9">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A973" s="2"/>
       <c r="C973" s="2"/>
       <c r="F973" s="2"/>
       <c r="I973" s="15"/>
     </row>
-    <row r="974" spans="1:9">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A974" s="2"/>
       <c r="C974" s="2"/>
       <c r="F974" s="2"/>
       <c r="I974" s="15"/>
     </row>
-    <row r="975" spans="1:9">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A975" s="2"/>
       <c r="C975" s="2"/>
       <c r="F975" s="2"/>
       <c r="I975" s="15"/>
     </row>
-    <row r="976" spans="1:9">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A976" s="2"/>
       <c r="C976" s="2"/>
       <c r="F976" s="2"/>
       <c r="I976" s="15"/>
     </row>
-    <row r="977" spans="1:9">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A977" s="2"/>
       <c r="C977" s="2"/>
       <c r="F977" s="2"/>
       <c r="I977" s="15"/>
     </row>
-    <row r="978" spans="1:9">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A978" s="2"/>
       <c r="C978" s="2"/>
       <c r="F978" s="2"/>
       <c r="I978" s="15"/>
     </row>
-    <row r="979" spans="1:9">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A979" s="2"/>
       <c r="C979" s="2"/>
       <c r="F979" s="2"/>
       <c r="I979" s="15"/>
     </row>
-    <row r="980" spans="1:9">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A980" s="2"/>
       <c r="C980" s="2"/>
       <c r="F980" s="2"/>
       <c r="I980" s="15"/>
     </row>
-    <row r="981" spans="1:9">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A981" s="2"/>
       <c r="C981" s="2"/>
       <c r="F981" s="2"/>
       <c r="I981" s="15"/>
     </row>
-    <row r="982" spans="1:9">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A982" s="2"/>
       <c r="C982" s="2"/>
       <c r="F982" s="2"/>
       <c r="I982" s="15"/>
     </row>
-    <row r="983" spans="1:9">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A983" s="2"/>
       <c r="C983" s="2"/>
       <c r="F983" s="2"/>
       <c r="I983" s="15"/>
     </row>
-    <row r="984" spans="1:9">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A984" s="2"/>
       <c r="C984" s="2"/>
       <c r="F984" s="2"/>
       <c r="I984" s="15"/>
     </row>
-    <row r="985" spans="1:9">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A985" s="2"/>
       <c r="C985" s="2"/>
       <c r="F985" s="2"/>
       <c r="I985" s="15"/>
     </row>
-    <row r="986" spans="1:9">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A986" s="2"/>
       <c r="C986" s="2"/>
       <c r="F986" s="2"/>
       <c r="I986" s="15"/>
     </row>
-    <row r="987" spans="1:9">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A987" s="2"/>
       <c r="C987" s="2"/>
       <c r="F987" s="2"/>
       <c r="I987" s="15"/>
     </row>
-    <row r="988" spans="1:9">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A988" s="2"/>
       <c r="C988" s="2"/>
       <c r="F988" s="2"/>
       <c r="I988" s="15"/>
     </row>
-    <row r="989" spans="1:9">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A989" s="2"/>
       <c r="C989" s="2"/>
       <c r="F989" s="2"/>
       <c r="I989" s="15"/>
     </row>
-    <row r="990" spans="1:9">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A990" s="2"/>
       <c r="C990" s="2"/>
       <c r="F990" s="2"/>
       <c r="I990" s="15"/>
     </row>
-    <row r="991" spans="1:9">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A991" s="2"/>
       <c r="C991" s="2"/>
       <c r="F991" s="2"/>
       <c r="I991" s="15"/>
     </row>
-    <row r="992" spans="1:9">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A992" s="2"/>
       <c r="C992" s="2"/>
       <c r="F992" s="2"/>
       <c r="I992" s="15"/>
     </row>
-    <row r="993" spans="1:9">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A993" s="2"/>
       <c r="C993" s="2"/>
       <c r="F993" s="2"/>
       <c r="I993" s="15"/>
     </row>
-    <row r="994" spans="1:9">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A994" s="2"/>
       <c r="C994" s="2"/>
       <c r="F994" s="2"/>
       <c r="I994" s="15"/>
     </row>
-    <row r="995" spans="1:9">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A995" s="2"/>
       <c r="C995" s="2"/>
       <c r="F995" s="2"/>
       <c r="I995" s="15"/>
     </row>
-    <row r="996" spans="1:9">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A996" s="2"/>
       <c r="C996" s="2"/>
       <c r="F996" s="2"/>
       <c r="I996" s="15"/>
     </row>
-    <row r="997" spans="1:9">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A997" s="2"/>
       <c r="C997" s="2"/>
       <c r="F997" s="2"/>
       <c r="I997" s="15"/>
     </row>
-    <row r="998" spans="1:9">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A998" s="2"/>
       <c r="C998" s="2"/>
       <c r="F998" s="2"/>
       <c r="I998" s="15"/>
     </row>
-    <row r="999" spans="1:9">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A999" s="2"/>
       <c r="C999" s="2"/>
       <c r="F999" s="2"/>

--- a/Requirements/Lhub_SIQ.xlsx
+++ b/Requirements/Lhub_SIQ.xlsx
@@ -882,14 +882,14 @@
   <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="1"/>
     <col min="2" max="2" width="69.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="92.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="102.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
